--- a/DataFeeds/FoodPriceIndex_FAO.xlsx
+++ b/DataFeeds/FoodPriceIndex_FAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363A6871-32A3-44AD-BCD7-5AE59B40D5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBFD871-375F-47E7-BE02-A1BEBE447F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{B2DA42F1-6EA0-4C56-BA21-E21AAE3FA26C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B2DA42F1-6EA0-4C56-BA21-E21AAE3FA26C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Food Price Index</t>
+  </si>
+  <si>
+    <t>2022 08</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -160,6 +163,10 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -476,15 +483,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F37AE00-0E9B-4B95-9B55-969227118D25}">
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="D389" sqref="D389"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -492,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>32874</v>
       </c>
@@ -500,7 +507,7 @@
         <v>64.145081201786851</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>32905</v>
       </c>
@@ -508,7 +515,7 @@
         <v>64.453559576792074</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>32933</v>
       </c>
@@ -516,7 +523,7 @@
         <v>63.787064169890918</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>32964</v>
       </c>
@@ -524,7 +531,7 @@
         <v>65.76675418813106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>32994</v>
       </c>
@@ -532,7 +539,7 @@
         <v>64.378873668989087</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>33025</v>
       </c>
@@ -540,7 +547,7 @@
         <v>63.702498675118768</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>33055</v>
       </c>
@@ -548,7 +555,7 @@
         <v>62.543558381061445</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>33086</v>
       </c>
@@ -556,7 +563,7 @@
         <v>61.484431549066706</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>33117</v>
       </c>
@@ -564,7 +571,7 @@
         <v>60.991468535235995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>33147</v>
       </c>
@@ -572,7 +579,7 @@
         <v>61.098352565168597</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>33178</v>
       </c>
@@ -580,7 +587,7 @@
         <v>61.870602459777402</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>33208</v>
       </c>
@@ -588,7 +595,7 @@
         <v>61.939877523243254</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>33239</v>
       </c>
@@ -596,7 +603,7 @@
         <v>60.796240628135578</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>33270</v>
       </c>
@@ -604,7 +611,7 @@
         <v>61.532715562033815</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>33298</v>
       </c>
@@ -612,7 +619,7 @@
         <v>61.980544755948991</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>33329</v>
       </c>
@@ -620,7 +627,7 @@
         <v>60.719933677837759</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>33359</v>
       </c>
@@ -628,7 +635,7 @@
         <v>60.579912457586794</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>33390</v>
       </c>
@@ -636,7 +643,7 @@
         <v>61.038044047192798</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>33420</v>
       </c>
@@ -644,7 +651,7 @@
         <v>61.844881182256749</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>33451</v>
       </c>
@@ -652,7 +659,7 @@
         <v>61.434257534218361</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>33482</v>
       </c>
@@ -660,7 +667,7 @@
         <v>62.109048528577269</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>33512</v>
       </c>
@@ -668,7 +675,7 @@
         <v>64.277817553486329</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>33543</v>
       </c>
@@ -676,7 +683,7 @@
         <v>64.396867832208088</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>33573</v>
       </c>
@@ -684,7 +691,7 @@
         <v>64.052386881204967</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>33604</v>
       </c>
@@ -692,7 +699,7 @@
         <v>64.782244426166685</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>33635</v>
       </c>
@@ -700,7 +707,7 @@
         <v>65.673422077701602</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>33664</v>
       </c>
@@ -708,7 +715,7 @@
         <v>66.126414021954176</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>33695</v>
       </c>
@@ -716,7 +723,7 @@
         <v>64.484829234119118</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>33725</v>
       </c>
@@ -724,7 +731,7 @@
         <v>64.820194438045917</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>33756</v>
       </c>
@@ -732,7 +739,7 @@
         <v>65.610806377929023</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>33786</v>
       </c>
@@ -740,7 +747,7 @@
         <v>64.434171309198575</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>33817</v>
       </c>
@@ -748,7 +755,7 @@
         <v>62.805213785822566</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33848</v>
       </c>
@@ -756,7 +763,7 @@
         <v>63.494937305594839</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33878</v>
       </c>
@@ -764,7 +771,7 @@
         <v>61.524609400943248</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>33909</v>
       </c>
@@ -772,7 +779,7 @@
         <v>62.42391234895284</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>33939</v>
       </c>
@@ -780,7 +787,7 @@
         <v>61.033889412961379</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>33970</v>
       </c>
@@ -788,7 +795,7 @@
         <v>61.345743229630394</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>34001</v>
       </c>
@@ -796,7 +803,7 @@
         <v>61.189378451122337</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>34029</v>
       </c>
@@ -804,7 +811,7 @@
         <v>62.885765307125261</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>34060</v>
       </c>
@@ -812,7 +819,7 @@
         <v>62.528512433818491</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>34090</v>
       </c>
@@ -820,7 +827,7 @@
         <v>62.049882158414796</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>34121</v>
       </c>
@@ -828,7 +835,7 @@
         <v>61.48045055879598</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>34151</v>
       </c>
@@ -836,7 +843,7 @@
         <v>61.876108006719946</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>34182</v>
       </c>
@@ -844,7 +851,7 @@
         <v>60.532651112243393</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>34213</v>
       </c>
@@ -852,7 +859,7 @@
         <v>60.920111165649729</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>34243</v>
       </c>
@@ -860,7 +867,7 @@
         <v>61.188198647335163</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>34274</v>
       </c>
@@ -868,7 +875,7 @@
         <v>62.996001440845333</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>34304</v>
       </c>
@@ -876,7 +883,7 @@
         <v>64.349348913965017</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>34335</v>
       </c>
@@ -884,7 +891,7 @@
         <v>64.519150855859451</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>34366</v>
       </c>
@@ -892,7 +899,7 @@
         <v>64.117897578875485</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>34394</v>
       </c>
@@ -900,7 +907,7 @@
         <v>64.524015912722419</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>34425</v>
       </c>
@@ -908,7 +915,7 @@
         <v>63.701783024381974</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>34455</v>
       </c>
@@ -916,7 +923,7 @@
         <v>65.582544352046156</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>34486</v>
       </c>
@@ -924,7 +931,7 @@
         <v>65.192204236518791</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>34516</v>
       </c>
@@ -932,7 +939,7 @@
         <v>63.9207343138483</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>34547</v>
       </c>
@@ -940,7 +947,7 @@
         <v>66.195815161815858</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>34578</v>
       </c>
@@ -948,7 +955,7 @@
         <v>69.282487624899304</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>34608</v>
       </c>
@@ -956,7 +963,7 @@
         <v>69.889742328079393</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>34639</v>
       </c>
@@ -964,7 +971,7 @@
         <v>73.243885904886568</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>34669</v>
       </c>
@@ -972,7 +979,7 @@
         <v>73.100813231220215</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>34700</v>
       </c>
@@ -980,7 +987,7 @@
         <v>72.864546929358156</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>34731</v>
       </c>
@@ -988,7 +995,7 @@
         <v>74.431623191575952</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>34759</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>75.134645715163558</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>34790</v>
       </c>
@@ -1004,7 +1011,7 @@
         <v>73.976631598526353</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>34820</v>
       </c>
@@ -1012,7 +1019,7 @@
         <v>73.992412145086675</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>34851</v>
       </c>
@@ -1020,7 +1027,7 @@
         <v>75.08616968366421</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>34881</v>
       </c>
@@ -1028,7 +1035,7 @@
         <v>79.522274009389974</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>34912</v>
       </c>
@@ -1036,7 +1043,7 @@
         <v>78.048018086417244</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>34943</v>
       </c>
@@ -1044,7 +1051,7 @@
         <v>78.25739342379461</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>34973</v>
       </c>
@@ -1052,7 +1059,7 @@
         <v>80.367707962405191</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>35004</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>79.823933234258618</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>35034</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>77.999578485084868</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>35065</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>76.990016657356108</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>35096</v>
       </c>
@@ -1084,7 +1091,7 @@
         <v>77.460071496561312</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>35125</v>
       </c>
@@ -1092,7 +1099,7 @@
         <v>78.584280191300692</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>35156</v>
       </c>
@@ -1100,7 +1107,7 @@
         <v>80.776725121912733</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>35186</v>
       </c>
@@ -1108,7 +1115,7 @@
         <v>82.362529573585249</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>35217</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>80.462962768059867</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>35247</v>
       </c>
@@ -1124,7 +1131,7 @@
         <v>80.238727437859581</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>35278</v>
       </c>
@@ -1132,7 +1139,7 @@
         <v>79.859810007753339</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>35309</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>76.858067801415004</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>35339</v>
       </c>
@@ -1148,7 +1155,7 @@
         <v>74.128406288531721</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>35370</v>
       </c>
@@ -1156,7 +1163,7 @@
         <v>72.53318515528926</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>35400</v>
       </c>
@@ -1164,7 +1171,7 @@
         <v>71.365344959469368</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>35431</v>
       </c>
@@ -1172,7 +1179,7 @@
         <v>70.862247512350237</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>35462</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>70.981240179584844</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>35490</v>
       </c>
@@ -1188,7 +1195,7 @@
         <v>72.778374112988388</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>35521</v>
       </c>
@@ -1196,7 +1203,7 @@
         <v>73.379431145137971</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>35551</v>
       </c>
@@ -1204,7 +1211,7 @@
         <v>72.772802072296187</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>35582</v>
       </c>
@@ -1212,7 +1219,7 @@
         <v>70.226572695742249</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>35612</v>
       </c>
@@ -1220,7 +1227,7 @@
         <v>68.399429507407731</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>35643</v>
       </c>
@@ -1228,7 +1235,7 @@
         <v>69.811112284382574</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>35674</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>69.957810019919691</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>35704</v>
       </c>
@@ -1244,7 +1251,7 @@
         <v>69.750234297317945</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>35735</v>
       </c>
@@ -1252,7 +1259,7 @@
         <v>70.308184991539918</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>35765</v>
       </c>
@@ -1260,7 +1267,7 @@
         <v>68.038545344187725</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>35796</v>
       </c>
@@ -1268,7 +1275,7 @@
         <v>67.370080351774575</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>35827</v>
       </c>
@@ -1276,7 +1283,7 @@
         <v>67.612546687674481</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>35855</v>
       </c>
@@ -1284,7 +1291,7 @@
         <v>67.403821353660007</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>35886</v>
       </c>
@@ -1292,7 +1299,7 @@
         <v>66.847627111404222</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>35916</v>
       </c>
@@ -1300,7 +1307,7 @@
         <v>66.432982068263271</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>35947</v>
       </c>
@@ -1308,7 +1315,7 @@
         <v>64.242966646965897</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>35977</v>
       </c>
@@ -1316,7 +1323,7 @@
         <v>64.312407036548464</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>36008</v>
       </c>
@@ -1324,7 +1331,7 @@
         <v>62.375225186001686</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>36039</v>
       </c>
@@ -1332,7 +1339,7 @@
         <v>61.930315225298614</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>36069</v>
       </c>
@@ -1340,7 +1347,7 @@
         <v>62.698031806263586</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>36100</v>
       </c>
@@ -1348,7 +1355,7 @@
         <v>62.609658795629755</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>36130</v>
       </c>
@@ -1356,7 +1363,7 @@
         <v>62.08901135330364</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>36161</v>
       </c>
@@ -1364,7 +1371,7 @@
         <v>60.991732789577476</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>36192</v>
       </c>
@@ -1372,7 +1379,7 @@
         <v>58.41657690544946</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>36220</v>
       </c>
@@ -1380,7 +1387,7 @@
         <v>57.016277396491787</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>36251</v>
       </c>
@@ -1388,7 +1395,7 @@
         <v>55.813991498929084</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>36281</v>
       </c>
@@ -1396,7 +1403,7 @@
         <v>55.387198736101027</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>36312</v>
       </c>
@@ -1404,7 +1411,7 @@
         <v>54.56035351424736</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>36342</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>52.590340979375945</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>36373</v>
       </c>
@@ -1420,7 +1427,7 @@
         <v>54.378029522851079</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>36404</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>54.589401264583394</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>36434</v>
       </c>
@@ -1436,7 +1443,7 @@
         <v>53.240734555332203</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>36465</v>
       </c>
@@ -1444,7 +1451,7 @@
         <v>53.170004563508776</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>36495</v>
       </c>
@@ -1452,7 +1459,7 @@
         <v>51.880353853016082</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>36526</v>
       </c>
@@ -1460,7 +1467,7 @@
         <v>52.631477004418443</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>36557</v>
       </c>
@@ -1468,7 +1475,7 @@
         <v>52.290871987879896</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>36586</v>
       </c>
@@ -1476,7 +1483,7 @@
         <v>52.816466592972773</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>36617</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>53.355130560382428</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>36647</v>
       </c>
@@ -1492,7 +1499,7 @@
         <v>53.634471342232921</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>36678</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>53.770701606153096</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>36708</v>
       </c>
@@ -1508,7 +1515,7 @@
         <v>54.025359796220656</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>36739</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>53.161883344259216</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>36770</v>
       </c>
@@ -1524,7 +1531,7 @@
         <v>52.583189289621828</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>36800</v>
       </c>
@@ -1532,7 +1539,7 @@
         <v>53.380776191114137</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>36831</v>
       </c>
@@ -1540,7 +1547,7 @@
         <v>53.815876206812518</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>36861</v>
       </c>
@@ -1548,7 +1555,7 @@
         <v>54.449967265262387</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>36892</v>
       </c>
@@ -1556,7 +1563,7 @@
         <v>53.809420571022173</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>36923</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>54.248992309421141</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>36951</v>
       </c>
@@ -1572,7 +1579,7 @@
         <v>55.077352606468807</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>36982</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>54.619706188718759</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>37012</v>
       </c>
@@ -1588,7 +1595,7 @@
         <v>55.409242189245468</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>37043</v>
       </c>
@@ -1596,7 +1603,7 @@
         <v>54.770389950508417</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>37073</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>56.499642271702314</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>37104</v>
       </c>
@@ -1612,7 +1619,7 @@
         <v>56.579570230941911</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>37135</v>
       </c>
@@ -1620,7 +1627,7 @@
         <v>55.3793745240296</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>37165</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>54.167684992672569</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>37196</v>
       </c>
@@ -1636,7 +1643,7 @@
         <v>54.736487203445066</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>37226</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>54.273879353398911</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>37257</v>
       </c>
@@ -1652,7 +1659,7 @@
         <v>53.454751610247861</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>37288</v>
       </c>
@@ -1660,7 +1667,7 @@
         <v>51.669056784069753</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>37316</v>
       </c>
@@ -1668,7 +1675,7 @@
         <v>52.020133878077331</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>37347</v>
       </c>
@@ -1676,7 +1683,7 @@
         <v>51.039979802352384</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>37377</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>50.467840647466993</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>37408</v>
       </c>
@@ -1692,7 +1699,7 @@
         <v>51.326108069235154</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>37438</v>
       </c>
@@ -1700,7 +1707,7 @@
         <v>51.995040814632851</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>37469</v>
       </c>
@@ -1708,7 +1715,7 @@
         <v>53.416662720212685</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>37500</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>54.916966891307425</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>37530</v>
       </c>
@@ -1724,7 +1731,7 @@
         <v>55.235272179445218</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>37561</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>56.286648961085703</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>37591</v>
       </c>
@@ -1740,7 +1747,7 @@
         <v>55.639092348226313</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>37622</v>
       </c>
@@ -1748,7 +1755,7 @@
         <v>55.950249973157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>37653</v>
       </c>
@@ -1756,7 +1763,7 @@
         <v>56.534211017775121</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>37681</v>
       </c>
@@ -1764,7 +1771,7 @@
         <v>55.523033652228357</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>37712</v>
       </c>
@@ -1772,7 +1779,7 @@
         <v>55.563843188702982</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>37742</v>
       </c>
@@ -1780,7 +1787,7 @@
         <v>56.294111024594514</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>37773</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>56.048570481017173</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>37803</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>56.724323240412502</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>37834</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>57.577070527528477</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>37865</v>
       </c>
@@ -1812,7 +1819,7 @@
         <v>58.732177481441582</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>37895</v>
       </c>
@@ -1820,7 +1827,7 @@
         <v>60.330371924093434</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>37926</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>61.791053117371682</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>37956</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>62.443521026230073</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>37987</v>
       </c>
@@ -1844,7 +1851,7 @@
         <v>64.278145802413263</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>38018</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>65.034032258366011</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>38047</v>
       </c>
@@ -1860,7 +1867,7 @@
         <v>66.661202220376211</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>38078</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>67.250689015338835</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>38108</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>66.355273055172489</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>38139</v>
       </c>
@@ -1884,7 +1891,7 @@
         <v>66.082701484089341</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>38169</v>
       </c>
@@ -1892,7 +1899,7 @@
         <v>65.561888475812921</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>38200</v>
       </c>
@@ -1900,7 +1907,7 @@
         <v>64.481144758068794</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>38231</v>
       </c>
@@ -1908,7 +1915,7 @@
         <v>65.228526409797809</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>38261</v>
       </c>
@@ -1916,7 +1923,7 @@
         <v>64.725320315655338</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>38292</v>
       </c>
@@ -1924,7 +1931,7 @@
         <v>65.37593348806891</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>38322</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>65.608106490130098</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>38353</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>65.388128764632469</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>38384</v>
       </c>
@@ -1948,7 +1955,7 @@
         <v>65.877598658511374</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>38412</v>
       </c>
@@ -1956,7 +1963,7 @@
         <v>67.141254642426375</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>38443</v>
       </c>
@@ -1964,7 +1971,7 @@
         <v>65.600154611110739</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>38473</v>
       </c>
@@ -1972,7 +1979,7 @@
         <v>66.300978861073844</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>38504</v>
       </c>
@@ -1980,7 +1987,7 @@
         <v>67.164455621928852</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>38534</v>
       </c>
@@ -1988,7 +1995,7 @@
         <v>67.425535214503185</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>38565</v>
       </c>
@@ -1996,7 +2003,7 @@
         <v>67.465523001727135</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>38596</v>
       </c>
@@ -2004,7 +2011,7 @@
         <v>68.412424086291679</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>38626</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v>69.389174078714404</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>38657</v>
       </c>
@@ -2020,7 +2027,7 @@
         <v>68.840495383836526</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>38687</v>
       </c>
@@ -2028,7 +2035,7 @@
         <v>69.519821974542552</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>38718</v>
       </c>
@@ -2036,7 +2043,7 @@
         <v>69.416306326446659</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>38749</v>
       </c>
@@ -2044,7 +2051,7 @@
         <v>70.426147040786873</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>38777</v>
       </c>
@@ -2052,7 +2059,7 @@
         <v>69.398946124190999</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>38808</v>
       </c>
@@ -2060,7 +2067,7 @@
         <v>69.70869181160748</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>38838</v>
       </c>
@@ -2068,7 +2075,7 @@
         <v>70.995882692215915</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>38869</v>
       </c>
@@ -2076,7 +2083,7 @@
         <v>71.09722700380533</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>38899</v>
       </c>
@@ -2084,7 +2091,7 @@
         <v>72.886583726742828</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>38930</v>
       </c>
@@ -2092,7 +2099,7 @@
         <v>72.862642231543873</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>38961</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>73.009806911859087</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>38991</v>
       </c>
@@ -2108,7 +2115,7 @@
         <v>74.918540809617483</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>39022</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>77.470231939184274</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>39052</v>
       </c>
@@ -2124,7 +2131,7 @@
         <v>78.566840469341173</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>39083</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>78.115814084155801</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>39114</v>
       </c>
@@ -2140,7 +2147,7 @@
         <v>79.620164362101818</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>39142</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>80.777022113344714</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>39173</v>
       </c>
@@ -2156,7 +2163,7 @@
         <v>83.550914300037988</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>39203</v>
       </c>
@@ -2164,7 +2171,7 @@
         <v>86.166427172206369</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>39234</v>
       </c>
@@ -2172,7 +2179,7 @@
         <v>91.116117048678433</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>39264</v>
       </c>
@@ -2180,7 +2187,7 @@
         <v>95.322350254706748</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>39295</v>
       </c>
@@ -2188,7 +2195,7 @@
         <v>98.915281639643155</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>39326</v>
       </c>
@@ -2196,7 +2203,7 @@
         <v>105.02954423277269</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>39356</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>107.5851254343452</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>39387</v>
       </c>
@@ -2212,7 +2219,7 @@
         <v>110.45332585943603</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>39417</v>
       </c>
@@ -2220,7 +2227,7 @@
         <v>114.39050078061214</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>39448</v>
       </c>
@@ -2228,7 +2235,7 @@
         <v>120.01583017968713</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>39479</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>128.02840441177617</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>39508</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>132.06947096045573</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>39539</v>
       </c>
@@ -2252,7 +2259,7 @@
         <v>130.37540375996133</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>39569</v>
       </c>
@@ -2260,7 +2267,7 @@
         <v>130.03518233921287</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>39600</v>
       </c>
@@ -2268,7 +2275,7 @@
         <v>132.52861651196463</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>39630</v>
       </c>
@@ -2276,7 +2283,7 @@
         <v>130.10511546870418</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>39661</v>
       </c>
@@ -2284,7 +2291,7 @@
         <v>121.10344435063858</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>39692</v>
       </c>
@@ -2292,7 +2299,7 @@
         <v>112.76152808586448</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>39722</v>
       </c>
@@ -2300,7 +2307,7 @@
         <v>97.58430378812001</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>39753</v>
       </c>
@@ -2308,7 +2315,7 @@
         <v>89.547427171324472</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>39783</v>
       </c>
@@ -2316,7 +2323,7 @@
         <v>85.972977723222186</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>39814</v>
       </c>
@@ -2324,7 +2331,7 @@
         <v>86.421348424284247</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>39845</v>
       </c>
@@ -2332,7 +2339,7 @@
         <v>84.155982661765677</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>39873</v>
       </c>
@@ -2340,7 +2347,7 @@
         <v>84.015139101540086</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>39904</v>
       </c>
@@ -2348,7 +2355,7 @@
         <v>87.211023165588799</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>39934</v>
       </c>
@@ -2356,7 +2363,7 @@
         <v>93.341410330009296</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>39965</v>
       </c>
@@ -2364,7 +2371,7 @@
         <v>93.326916583544005</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>39995</v>
       </c>
@@ -2372,7 +2379,7 @@
         <v>90.705988637070789</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>40026</v>
       </c>
@@ -2380,7 +2387,7 @@
         <v>93.458807590331972</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>40057</v>
       </c>
@@ -2388,7 +2395,7 @@
         <v>93.044925709258962</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>40087</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>94.786334471460108</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>40118</v>
       </c>
@@ -2404,7 +2411,7 @@
         <v>98.808240985745613</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>40148</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>100.65974676348125</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>40179</v>
       </c>
@@ -2420,7 +2427,7 @@
         <v>101.49552559347393</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>40210</v>
       </c>
@@ -2428,7 +2435,7 @@
         <v>98.979386679281731</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>40238</v>
       </c>
@@ -2436,7 +2443,7 @@
         <v>96.308920331864229</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>40269</v>
       </c>
@@ -2444,7 +2451,7 @@
         <v>96.843720552095832</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>40299</v>
       </c>
@@ -2452,7 +2459,7 @@
         <v>96.287373861320674</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>40330</v>
       </c>
@@ -2460,7 +2467,7 @@
         <v>95.750055883136824</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>40360</v>
       </c>
@@ -2468,7 +2475,7 @@
         <v>99.960174812561633</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>40391</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>107.66610706924877</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>40422</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>114.13213959784272</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>40452</v>
       </c>
@@ -2492,7 +2499,7 @@
         <v>120.07213927332403</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>40483</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>124.12062280743339</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>40513</v>
       </c>
@@ -2508,7 +2515,7 @@
         <v>129.3098708683066</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>40544</v>
       </c>
@@ -2516,7 +2523,7 @@
         <v>133.68731541218941</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>40575</v>
       </c>
@@ -2524,7 +2531,7 @@
         <v>137.62240001491392</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>40603</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>134.27942316454204</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>40634</v>
       </c>
@@ -2540,7 +2547,7 @@
         <v>136.4202438571842</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>40664</v>
       </c>
@@ -2548,7 +2555,7 @@
         <v>135.16333931522834</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>40695</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>134.95586798495637</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>40725</v>
       </c>
@@ -2564,7 +2571,7 @@
         <v>133.19896606404478</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>40756</v>
       </c>
@@ -2572,7 +2579,7 @@
         <v>132.9764676496892</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>40787</v>
       </c>
@@ -2580,7 +2587,7 @@
         <v>130.40936988673025</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>40817</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>125.71902110433562</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>40848</v>
       </c>
@@ -2596,7 +2603,7 @@
         <v>126.11929200837886</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>40878</v>
       </c>
@@ -2604,7 +2611,7 @@
         <v>122.06128774194863</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>40909</v>
       </c>
@@ -2612,7 +2619,7 @@
         <v>122.40138703068955</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>40940</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>125.38292659308009</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>40969</v>
       </c>
@@ -2628,7 +2635,7 @@
         <v>125.76324918137013</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>41000</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>124.38102211438854</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>41030</v>
       </c>
@@ -2644,7 +2651,7 @@
         <v>119.04065513310724</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>41061</v>
       </c>
@@ -2652,7 +2659,7 @@
         <v>115.87005888125145</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>41091</v>
       </c>
@@ -2660,7 +2667,7 @@
         <v>122.12877421581177</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>41122</v>
       </c>
@@ -2668,7 +2675,7 @@
         <v>123.35385621660576</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>41153</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>125.22304522285901</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>41183</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>124.04151276080162</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>41214</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>123.63866045006203</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>41244</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>122.86475534293109</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>41275</v>
       </c>
@@ -2708,7 +2715,7 @@
         <v>123.39045525367366</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>41306</v>
       </c>
@@ -2716,7 +2723,7 @@
         <v>123.25195428283806</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>41334</v>
       </c>
@@ -2724,7 +2731,7 @@
         <v>122.88793241362539</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>41365</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>122.87156068790064</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>41395</v>
       </c>
@@ -2740,7 +2747,7 @@
         <v>122.09160124168872</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>41426</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>120.92326682833009</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>41456</v>
       </c>
@@ -2756,7 +2763,7 @@
         <v>117.89921473942348</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>41487</v>
       </c>
@@ -2764,7 +2771,7 @@
         <v>116.153422763965</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>41518</v>
       </c>
@@ -2772,7 +2779,7 @@
         <v>116.40536668640762</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>41548</v>
       </c>
@@ -2780,7 +2787,7 @@
         <v>118.75319687353954</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>41579</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>118.67885624962143</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>41609</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>118.19520320739767</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>41640</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>116.22440442117495</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>41671</v>
       </c>
@@ -2812,7 +2819,7 @@
         <v>118.47050984644193</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>41699</v>
       </c>
@@ -2820,7 +2827,7 @@
         <v>122.10233348649523</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>41730</v>
       </c>
@@ -2828,7 +2835,7 @@
         <v>121.45684139904604</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>41760</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>121.30475734611656</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>41791</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>119.29498812264622</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>41821</v>
       </c>
@@ -2852,7 +2859,7 @@
         <v>116.37468149135118</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>41852</v>
       </c>
@@ -2860,7 +2867,7 @@
         <v>113.02354947542455</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>41883</v>
       </c>
@@ -2868,7 +2875,7 @@
         <v>109.34977448740584</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>41913</v>
       </c>
@@ -2876,7 +2883,7 @@
         <v>109.35537035806981</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>41944</v>
       </c>
@@ -2884,7 +2891,7 @@
         <v>108.23683483031979</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>41974</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>105.1499411890838</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>42005</v>
       </c>
@@ -2900,7 +2907,7 @@
         <v>100.71195915697933</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>42036</v>
       </c>
@@ -2908,7 +2915,7 @@
         <v>98.450411487002583</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>42064</v>
       </c>
@@ -2916,7 +2923,7 @@
         <v>95.605668219361689</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>42095</v>
       </c>
@@ -2924,7 +2931,7 @@
         <v>94.696895171532333</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>42125</v>
       </c>
@@ -2932,7 +2939,7 @@
         <v>95.03048510379233</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>42156</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>94.543206733493776</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>42186</v>
       </c>
@@ -2948,7 +2955,7 @@
         <v>93.803221381518327</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>42217</v>
       </c>
@@ -2956,7 +2963,7 @@
         <v>89.564194169971188</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>42248</v>
       </c>
@@ -2964,7 +2971,7 @@
         <v>89.019701458323553</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>42278</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>90.369508685626712</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>42309</v>
       </c>
@@ -2980,7 +2987,7 @@
         <v>87.70669525008654</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>42339</v>
       </c>
@@ -2988,7 +2995,7 @@
         <v>87.061005732853573</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>42370</v>
       </c>
@@ -2996,7 +3003,7 @@
         <v>84.861238424402572</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>42401</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>86.046383419250574</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>42430</v>
       </c>
@@ -3012,7 +3019,7 @@
         <v>87.422204943485895</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>42461</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>89.177346068696593</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>42491</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>90.583839418895238</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>42522</v>
       </c>
@@ -3036,7 +3043,7 @@
         <v>93.836059260597139</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>42552</v>
       </c>
@@ -3044,7 +3051,7 @@
         <v>92.973172589459068</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>42583</v>
       </c>
@@ -3052,7 +3059,7 @@
         <v>95.294724328825737</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>42614</v>
       </c>
@@ -3060,7 +3067,7 @@
         <v>96.086100431050951</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>42644</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>95.92635654867054</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>42675</v>
       </c>
@@ -3076,7 +3083,7 @@
         <v>95.799278617425657</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>42705</v>
       </c>
@@ -3084,7 +3091,7 @@
         <v>95.086356945122645</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>42736</v>
       </c>
@@ -3092,7 +3099,7 @@
         <v>97.702430562659785</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>42767</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>98.119069876432334</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>42795</v>
       </c>
@@ -3108,7 +3115,7 @@
         <v>96.240328157749403</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>42826</v>
       </c>
@@ -3116,7 +3123,7 @@
         <v>95.136271435286886</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>42856</v>
       </c>
@@ -3124,7 +3131,7 @@
         <v>97.399869830618243</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>42888</v>
       </c>
@@ -3132,7 +3139,7 @@
         <v>97.966066966256307</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>42917</v>
       </c>
@@ -3140,7 +3147,7 @@
         <v>100.23240520288037</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>42948</v>
       </c>
@@ -3148,7 +3155,7 @@
         <v>99.338330224025697</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>42979</v>
       </c>
@@ -3156,7 +3163,7 @@
         <v>99.887133315590205</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>43009</v>
       </c>
@@ -3164,7 +3171,7 @@
         <v>98.912132230578692</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>43040</v>
       </c>
@@ -3172,7 +3179,7 @@
         <v>98.934208584369813</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>43070</v>
       </c>
@@ -3180,7 +3187,7 @@
         <v>96.406066018554256</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>43101</v>
       </c>
@@ -3188,7 +3195,7 @@
         <v>96.80294729738273</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>43132</v>
       </c>
@@ -3196,7 +3203,7 @@
         <v>97.875309196410214</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>43161</v>
       </c>
@@ -3204,7 +3211,7 @@
         <v>99.042066242010378</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>43192</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>98.557991831499152</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>43223</v>
       </c>
@@ -3220,7 +3227,7 @@
         <v>98.672771594809703</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>43252</v>
       </c>
@@ -3228,7 +3235,7 @@
         <v>96.950991723958538</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>43283</v>
       </c>
@@ -3236,7 +3243,7 @@
         <v>95.135179101762546</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>43313</v>
       </c>
@@ -3244,7 +3251,7 @@
         <v>95.969576183922669</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>43344</v>
       </c>
@@ -3252,7 +3259,7 @@
         <v>94.239430408790298</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>43374</v>
       </c>
@@ -3260,7 +3267,7 @@
         <v>93.3088521554686</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>43405</v>
       </c>
@@ -3268,7 +3275,7 @@
         <v>92.195534253777666</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>43435</v>
       </c>
@@ -3276,7 +3283,7 @@
         <v>92.249603458964941</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>43466</v>
       </c>
@@ -3284,7 +3291,7 @@
         <v>93.315060319903296</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>43497</v>
       </c>
@@ -3292,7 +3299,7 @@
         <v>94.009827246068099</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>43525</v>
       </c>
@@ -3300,7 +3307,7 @@
         <v>93.158414966533911</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>43556</v>
       </c>
@@ -3308,7 +3315,7 @@
         <v>93.611370171862163</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>43586</v>
       </c>
@@ -3316,7 +3323,7 @@
         <v>94.267664257664137</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>43618</v>
       </c>
@@ -3324,7 +3331,7 @@
         <v>95.404993031098414</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>43647</v>
       </c>
@@ -3332,7 +3339,7 @@
         <v>95.14701488199006</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>43678</v>
       </c>
@@ -3340,7 +3347,7 @@
         <v>94.084177362431817</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>43709</v>
       </c>
@@ -3348,7 +3355,7 @@
         <v>93.368634768546059</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>43739</v>
       </c>
@@ -3356,7 +3363,7 @@
         <v>95.247349769978584</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>43771</v>
       </c>
@@ -3364,7 +3371,7 @@
         <v>98.626175613962104</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>43800</v>
       </c>
@@ -3372,7 +3379,7 @@
         <v>101.00678467226496</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>43831</v>
       </c>
@@ -3380,7 +3387,7 @@
         <v>102.5151015442658</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>43862</v>
       </c>
@@ -3388,7 +3395,7 @@
         <v>99.418984683378341</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>43891</v>
       </c>
@@ -3396,7 +3403,7 @@
         <v>95.177238817172721</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>43922</v>
       </c>
@@ -3404,7 +3411,7 @@
         <v>92.526875587249066</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>43952</v>
       </c>
@@ -3412,7 +3419,7 @@
         <v>91.135360588162669</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>43983</v>
       </c>
@@ -3420,7 +3427,7 @@
         <v>93.255843352710514</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>44013</v>
       </c>
@@ -3428,7 +3435,7 @@
         <v>94.041451710554767</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>44044</v>
       </c>
@@ -3436,7 +3443,7 @@
         <v>95.915944445938479</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>44075</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>98.011497887472643</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>44105</v>
       </c>
@@ -3452,7 +3459,7 @@
         <v>101.3763809972607</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>44136</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>105.58600130353233</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>44166</v>
       </c>
@@ -3468,7 +3475,7 @@
         <v>108.59683960847201</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>44197</v>
       </c>
@@ -3476,7 +3483,7 @@
         <v>113.5255331944346</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>44228</v>
       </c>
@@ -3484,7 +3491,7 @@
         <v>116.57051072273163</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>44256</v>
       </c>
@@ -3492,7 +3499,7 @@
         <v>119.22932965492514</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>44287</v>
       </c>
@@ -3500,7 +3507,7 @@
         <v>122.06626942216495</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>44317</v>
       </c>
@@ -3508,7 +3515,7 @@
         <v>128.12555865773592</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>44348</v>
       </c>
@@ -3516,7 +3523,7 @@
         <v>125.27763455670987</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>44378</v>
       </c>
@@ -3524,7 +3531,7 @@
         <v>124.56485837282088</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>44409</v>
       </c>
@@ -3532,7 +3539,7 @@
         <v>127.95813590564271</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>44440</v>
       </c>
@@ -3540,7 +3547,7 @@
         <v>129.1891922766022</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>44470</v>
       </c>
@@ -3548,7 +3555,7 @@
         <v>133.22436853297222</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>44501</v>
       </c>
@@ -3556,7 +3563,7 @@
         <v>135.31485290573889</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>44531</v>
       </c>
@@ -3564,7 +3571,7 @@
         <v>133.69110309418375</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>44562</v>
       </c>
@@ -3572,7 +3579,7 @@
         <v>135.59415474947579</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>44593</v>
       </c>
@@ -3580,7 +3587,7 @@
         <v>141.06988276821363</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>44621</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>159.71318001343587</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>44652</v>
       </c>
@@ -3596,7 +3603,7 @@
         <v>158.43572048568788</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>44682</v>
       </c>
@@ -3604,7 +3611,7 @@
         <v>157.88527888175696</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>44713</v>
       </c>
@@ -3612,12 +3619,20 @@
         <v>154.2558712348773</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>44743</v>
       </c>
       <c r="B392" s="2">
         <v>140.93553653255782</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B393" s="5">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/DataFeeds/FoodPriceIndex_FAO.xlsx
+++ b/DataFeeds/FoodPriceIndex_FAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBFD871-375F-47E7-BE02-A1BEBE447F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63BFF85-AD47-4530-AEDF-4737B03A4D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B2DA42F1-6EA0-4C56-BA21-E21AAE3FA26C}"/>
+    <workbookView xWindow="28690" yWindow="2460" windowWidth="24220" windowHeight="13120" xr2:uid="{B2DA42F1-6EA0-4C56-BA21-E21AAE3FA26C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>2022 08</t>
+  </si>
+  <si>
+    <t>2022 09</t>
   </si>
 </sst>
 </file>
@@ -483,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F37AE00-0E9B-4B95-9B55-969227118D25}">
-  <dimension ref="A1:B393"/>
+  <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="D389" sqref="D389"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A393" sqref="A393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3635,6 +3638,14 @@
         <v>138</v>
       </c>
     </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394" s="5">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFeeds/FoodPriceIndex_FAO.xlsx
+++ b/DataFeeds/FoodPriceIndex_FAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63BFF85-AD47-4530-AEDF-4737B03A4D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0BC1AC-FD40-44F9-AAB2-6123662119A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="2460" windowWidth="24220" windowHeight="13120" xr2:uid="{B2DA42F1-6EA0-4C56-BA21-E21AAE3FA26C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B2DA42F1-6EA0-4C56-BA21-E21AAE3FA26C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,15 @@
   <si>
     <t>2022 09</t>
   </si>
+  <si>
+    <t>2022 10</t>
+  </si>
+  <si>
+    <t>2022 11</t>
+  </si>
+  <si>
+    <t>2022 12</t>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +66,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +91,12 @@
       <color indexed="8"/>
       <name val="Century"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -152,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -170,6 +185,9 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -486,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F37AE00-0E9B-4B95-9B55-969227118D25}">
-  <dimension ref="A1:B394"/>
+  <dimension ref="A1:B397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A393" sqref="A393"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="B394" sqref="B394:B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3646,7 +3664,32 @@
         <v>140</v>
       </c>
     </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B395" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B396" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" s="5">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataFeeds/FoodPriceIndex_FAO.xlsx
+++ b/DataFeeds/FoodPriceIndex_FAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meesam/Sandbox/Nutrien/Canpotex/DataFeeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0BC1AC-FD40-44F9-AAB2-6123662119A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E461DA73-271F-084D-92C2-39FA30A78350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B2DA42F1-6EA0-4C56-BA21-E21AAE3FA26C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="19420" windowHeight="10420" xr2:uid="{B2DA42F1-6EA0-4C56-BA21-E21AAE3FA26C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,27 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Food Price Index</t>
-  </si>
-  <si>
-    <t>2022 08</t>
-  </si>
-  <si>
-    <t>2022 09</t>
-  </si>
-  <si>
-    <t>2022 10</t>
-  </si>
-  <si>
-    <t>2022 11</t>
-  </si>
-  <si>
-    <t>2022 12</t>
   </si>
 </sst>
 </file>
@@ -167,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -181,13 +166,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -208,7 +186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F37AE00-0E9B-4B95-9B55-969227118D25}">
-  <dimension ref="A1:B397"/>
+  <dimension ref="A1:B493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="B394" sqref="B394:B397"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="B391" sqref="B391:B493"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -520,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32874</v>
       </c>
@@ -528,7 +506,7 @@
         <v>64.145081201786851</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32905</v>
       </c>
@@ -536,7 +514,7 @@
         <v>64.453559576792074</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32933</v>
       </c>
@@ -544,7 +522,7 @@
         <v>63.787064169890918</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32964</v>
       </c>
@@ -552,7 +530,7 @@
         <v>65.76675418813106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32994</v>
       </c>
@@ -560,7 +538,7 @@
         <v>64.378873668989087</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>33025</v>
       </c>
@@ -568,7 +546,7 @@
         <v>63.702498675118768</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>33055</v>
       </c>
@@ -576,7 +554,7 @@
         <v>62.543558381061445</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>33086</v>
       </c>
@@ -584,7 +562,7 @@
         <v>61.484431549066706</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>33117</v>
       </c>
@@ -592,7 +570,7 @@
         <v>60.991468535235995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>33147</v>
       </c>
@@ -600,7 +578,7 @@
         <v>61.098352565168597</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>33178</v>
       </c>
@@ -608,7 +586,7 @@
         <v>61.870602459777402</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>33208</v>
       </c>
@@ -616,7 +594,7 @@
         <v>61.939877523243254</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>33239</v>
       </c>
@@ -624,7 +602,7 @@
         <v>60.796240628135578</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>33270</v>
       </c>
@@ -632,7 +610,7 @@
         <v>61.532715562033815</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>33298</v>
       </c>
@@ -640,7 +618,7 @@
         <v>61.980544755948991</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>33329</v>
       </c>
@@ -648,7 +626,7 @@
         <v>60.719933677837759</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>33359</v>
       </c>
@@ -656,7 +634,7 @@
         <v>60.579912457586794</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>33390</v>
       </c>
@@ -664,7 +642,7 @@
         <v>61.038044047192798</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>33420</v>
       </c>
@@ -672,7 +650,7 @@
         <v>61.844881182256749</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>33451</v>
       </c>
@@ -680,7 +658,7 @@
         <v>61.434257534218361</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>33482</v>
       </c>
@@ -688,7 +666,7 @@
         <v>62.109048528577269</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>33512</v>
       </c>
@@ -696,7 +674,7 @@
         <v>64.277817553486329</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>33543</v>
       </c>
@@ -704,7 +682,7 @@
         <v>64.396867832208088</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>33573</v>
       </c>
@@ -712,7 +690,7 @@
         <v>64.052386881204967</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>33604</v>
       </c>
@@ -720,7 +698,7 @@
         <v>64.782244426166685</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>33635</v>
       </c>
@@ -728,7 +706,7 @@
         <v>65.673422077701602</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>33664</v>
       </c>
@@ -736,7 +714,7 @@
         <v>66.126414021954176</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>33695</v>
       </c>
@@ -744,7 +722,7 @@
         <v>64.484829234119118</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>33725</v>
       </c>
@@ -752,7 +730,7 @@
         <v>64.820194438045917</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>33756</v>
       </c>
@@ -760,7 +738,7 @@
         <v>65.610806377929023</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33786</v>
       </c>
@@ -768,7 +746,7 @@
         <v>64.434171309198575</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33817</v>
       </c>
@@ -776,7 +754,7 @@
         <v>62.805213785822566</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33848</v>
       </c>
@@ -784,7 +762,7 @@
         <v>63.494937305594839</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33878</v>
       </c>
@@ -792,7 +770,7 @@
         <v>61.524609400943248</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33909</v>
       </c>
@@ -800,7 +778,7 @@
         <v>62.42391234895284</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>33939</v>
       </c>
@@ -808,7 +786,7 @@
         <v>61.033889412961379</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>33970</v>
       </c>
@@ -816,7 +794,7 @@
         <v>61.345743229630394</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>34001</v>
       </c>
@@ -824,7 +802,7 @@
         <v>61.189378451122337</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>34029</v>
       </c>
@@ -832,7 +810,7 @@
         <v>62.885765307125261</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>34060</v>
       </c>
@@ -840,7 +818,7 @@
         <v>62.528512433818491</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>34090</v>
       </c>
@@ -848,7 +826,7 @@
         <v>62.049882158414796</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>34121</v>
       </c>
@@ -856,7 +834,7 @@
         <v>61.48045055879598</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>34151</v>
       </c>
@@ -864,7 +842,7 @@
         <v>61.876108006719946</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>34182</v>
       </c>
@@ -872,7 +850,7 @@
         <v>60.532651112243393</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>34213</v>
       </c>
@@ -880,7 +858,7 @@
         <v>60.920111165649729</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>34243</v>
       </c>
@@ -888,7 +866,7 @@
         <v>61.188198647335163</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>34274</v>
       </c>
@@ -896,7 +874,7 @@
         <v>62.996001440845333</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>34304</v>
       </c>
@@ -904,7 +882,7 @@
         <v>64.349348913965017</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>34335</v>
       </c>
@@ -912,7 +890,7 @@
         <v>64.519150855859451</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>34366</v>
       </c>
@@ -920,7 +898,7 @@
         <v>64.117897578875485</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>34394</v>
       </c>
@@ -928,7 +906,7 @@
         <v>64.524015912722419</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>34425</v>
       </c>
@@ -936,7 +914,7 @@
         <v>63.701783024381974</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>34455</v>
       </c>
@@ -944,7 +922,7 @@
         <v>65.582544352046156</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>34486</v>
       </c>
@@ -952,7 +930,7 @@
         <v>65.192204236518791</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>34516</v>
       </c>
@@ -960,7 +938,7 @@
         <v>63.9207343138483</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>34547</v>
       </c>
@@ -968,7 +946,7 @@
         <v>66.195815161815858</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>34578</v>
       </c>
@@ -976,7 +954,7 @@
         <v>69.282487624899304</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>34608</v>
       </c>
@@ -984,7 +962,7 @@
         <v>69.889742328079393</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>34639</v>
       </c>
@@ -992,7 +970,7 @@
         <v>73.243885904886568</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>34669</v>
       </c>
@@ -1000,7 +978,7 @@
         <v>73.100813231220215</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>34700</v>
       </c>
@@ -1008,7 +986,7 @@
         <v>72.864546929358156</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>34731</v>
       </c>
@@ -1016,7 +994,7 @@
         <v>74.431623191575952</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>34759</v>
       </c>
@@ -1024,7 +1002,7 @@
         <v>75.134645715163558</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>34790</v>
       </c>
@@ -1032,7 +1010,7 @@
         <v>73.976631598526353</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>34820</v>
       </c>
@@ -1040,7 +1018,7 @@
         <v>73.992412145086675</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>34851</v>
       </c>
@@ -1048,7 +1026,7 @@
         <v>75.08616968366421</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>34881</v>
       </c>
@@ -1056,7 +1034,7 @@
         <v>79.522274009389974</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>34912</v>
       </c>
@@ -1064,7 +1042,7 @@
         <v>78.048018086417244</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>34943</v>
       </c>
@@ -1072,7 +1050,7 @@
         <v>78.25739342379461</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>34973</v>
       </c>
@@ -1080,7 +1058,7 @@
         <v>80.367707962405191</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>35004</v>
       </c>
@@ -1088,7 +1066,7 @@
         <v>79.823933234258618</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>35034</v>
       </c>
@@ -1096,7 +1074,7 @@
         <v>77.999578485084868</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>35065</v>
       </c>
@@ -1104,7 +1082,7 @@
         <v>76.990016657356108</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>35096</v>
       </c>
@@ -1112,7 +1090,7 @@
         <v>77.460071496561312</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>35125</v>
       </c>
@@ -1120,7 +1098,7 @@
         <v>78.584280191300692</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>35156</v>
       </c>
@@ -1128,7 +1106,7 @@
         <v>80.776725121912733</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>35186</v>
       </c>
@@ -1136,7 +1114,7 @@
         <v>82.362529573585249</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>35217</v>
       </c>
@@ -1144,7 +1122,7 @@
         <v>80.462962768059867</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>35247</v>
       </c>
@@ -1152,7 +1130,7 @@
         <v>80.238727437859581</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>35278</v>
       </c>
@@ -1160,7 +1138,7 @@
         <v>79.859810007753339</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>35309</v>
       </c>
@@ -1168,7 +1146,7 @@
         <v>76.858067801415004</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>35339</v>
       </c>
@@ -1176,7 +1154,7 @@
         <v>74.128406288531721</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>35370</v>
       </c>
@@ -1184,7 +1162,7 @@
         <v>72.53318515528926</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>35400</v>
       </c>
@@ -1192,7 +1170,7 @@
         <v>71.365344959469368</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>35431</v>
       </c>
@@ -1200,7 +1178,7 @@
         <v>70.862247512350237</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>35462</v>
       </c>
@@ -1208,7 +1186,7 @@
         <v>70.981240179584844</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>35490</v>
       </c>
@@ -1216,7 +1194,7 @@
         <v>72.778374112988388</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>35521</v>
       </c>
@@ -1224,7 +1202,7 @@
         <v>73.379431145137971</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>35551</v>
       </c>
@@ -1232,7 +1210,7 @@
         <v>72.772802072296187</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>35582</v>
       </c>
@@ -1240,7 +1218,7 @@
         <v>70.226572695742249</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>35612</v>
       </c>
@@ -1248,7 +1226,7 @@
         <v>68.399429507407731</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>35643</v>
       </c>
@@ -1256,7 +1234,7 @@
         <v>69.811112284382574</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>35674</v>
       </c>
@@ -1264,7 +1242,7 @@
         <v>69.957810019919691</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>35704</v>
       </c>
@@ -1272,7 +1250,7 @@
         <v>69.750234297317945</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>35735</v>
       </c>
@@ -1280,7 +1258,7 @@
         <v>70.308184991539918</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>35765</v>
       </c>
@@ -1288,7 +1266,7 @@
         <v>68.038545344187725</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>35796</v>
       </c>
@@ -1296,7 +1274,7 @@
         <v>67.370080351774575</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35827</v>
       </c>
@@ -1304,7 +1282,7 @@
         <v>67.612546687674481</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>35855</v>
       </c>
@@ -1312,7 +1290,7 @@
         <v>67.403821353660007</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>35886</v>
       </c>
@@ -1320,7 +1298,7 @@
         <v>66.847627111404222</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>35916</v>
       </c>
@@ -1328,7 +1306,7 @@
         <v>66.432982068263271</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>35947</v>
       </c>
@@ -1336,7 +1314,7 @@
         <v>64.242966646965897</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>35977</v>
       </c>
@@ -1344,7 +1322,7 @@
         <v>64.312407036548464</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>36008</v>
       </c>
@@ -1352,7 +1330,7 @@
         <v>62.375225186001686</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>36039</v>
       </c>
@@ -1360,7 +1338,7 @@
         <v>61.930315225298614</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>36069</v>
       </c>
@@ -1368,7 +1346,7 @@
         <v>62.698031806263586</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>36100</v>
       </c>
@@ -1376,7 +1354,7 @@
         <v>62.609658795629755</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>36130</v>
       </c>
@@ -1384,7 +1362,7 @@
         <v>62.08901135330364</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>36161</v>
       </c>
@@ -1392,7 +1370,7 @@
         <v>60.991732789577476</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>36192</v>
       </c>
@@ -1400,7 +1378,7 @@
         <v>58.41657690544946</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>36220</v>
       </c>
@@ -1408,7 +1386,7 @@
         <v>57.016277396491787</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>36251</v>
       </c>
@@ -1416,7 +1394,7 @@
         <v>55.813991498929084</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>36281</v>
       </c>
@@ -1424,7 +1402,7 @@
         <v>55.387198736101027</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>36312</v>
       </c>
@@ -1432,7 +1410,7 @@
         <v>54.56035351424736</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>36342</v>
       </c>
@@ -1440,7 +1418,7 @@
         <v>52.590340979375945</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>36373</v>
       </c>
@@ -1448,7 +1426,7 @@
         <v>54.378029522851079</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>36404</v>
       </c>
@@ -1456,7 +1434,7 @@
         <v>54.589401264583394</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>36434</v>
       </c>
@@ -1464,7 +1442,7 @@
         <v>53.240734555332203</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>36465</v>
       </c>
@@ -1472,7 +1450,7 @@
         <v>53.170004563508776</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>36495</v>
       </c>
@@ -1480,7 +1458,7 @@
         <v>51.880353853016082</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>36526</v>
       </c>
@@ -1488,7 +1466,7 @@
         <v>52.631477004418443</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>36557</v>
       </c>
@@ -1496,7 +1474,7 @@
         <v>52.290871987879896</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>36586</v>
       </c>
@@ -1504,7 +1482,7 @@
         <v>52.816466592972773</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>36617</v>
       </c>
@@ -1512,7 +1490,7 @@
         <v>53.355130560382428</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>36647</v>
       </c>
@@ -1520,7 +1498,7 @@
         <v>53.634471342232921</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>36678</v>
       </c>
@@ -1528,7 +1506,7 @@
         <v>53.770701606153096</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>36708</v>
       </c>
@@ -1536,7 +1514,7 @@
         <v>54.025359796220656</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>36739</v>
       </c>
@@ -1544,7 +1522,7 @@
         <v>53.161883344259216</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>36770</v>
       </c>
@@ -1552,7 +1530,7 @@
         <v>52.583189289621828</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>36800</v>
       </c>
@@ -1560,7 +1538,7 @@
         <v>53.380776191114137</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>36831</v>
       </c>
@@ -1568,7 +1546,7 @@
         <v>53.815876206812518</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>36861</v>
       </c>
@@ -1576,7 +1554,7 @@
         <v>54.449967265262387</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>36892</v>
       </c>
@@ -1584,7 +1562,7 @@
         <v>53.809420571022173</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>36923</v>
       </c>
@@ -1592,7 +1570,7 @@
         <v>54.248992309421141</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>36951</v>
       </c>
@@ -1600,7 +1578,7 @@
         <v>55.077352606468807</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>36982</v>
       </c>
@@ -1608,7 +1586,7 @@
         <v>54.619706188718759</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>37012</v>
       </c>
@@ -1616,7 +1594,7 @@
         <v>55.409242189245468</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>37043</v>
       </c>
@@ -1624,7 +1602,7 @@
         <v>54.770389950508417</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>37073</v>
       </c>
@@ -1632,7 +1610,7 @@
         <v>56.499642271702314</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>37104</v>
       </c>
@@ -1640,7 +1618,7 @@
         <v>56.579570230941911</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>37135</v>
       </c>
@@ -1648,7 +1626,7 @@
         <v>55.3793745240296</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>37165</v>
       </c>
@@ -1656,7 +1634,7 @@
         <v>54.167684992672569</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>37196</v>
       </c>
@@ -1664,7 +1642,7 @@
         <v>54.736487203445066</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>37226</v>
       </c>
@@ -1672,7 +1650,7 @@
         <v>54.273879353398911</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>37257</v>
       </c>
@@ -1680,7 +1658,7 @@
         <v>53.454751610247861</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>37288</v>
       </c>
@@ -1688,7 +1666,7 @@
         <v>51.669056784069753</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>37316</v>
       </c>
@@ -1696,7 +1674,7 @@
         <v>52.020133878077331</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>37347</v>
       </c>
@@ -1704,7 +1682,7 @@
         <v>51.039979802352384</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>37377</v>
       </c>
@@ -1712,7 +1690,7 @@
         <v>50.467840647466993</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>37408</v>
       </c>
@@ -1720,7 +1698,7 @@
         <v>51.326108069235154</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>37438</v>
       </c>
@@ -1728,7 +1706,7 @@
         <v>51.995040814632851</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>37469</v>
       </c>
@@ -1736,7 +1714,7 @@
         <v>53.416662720212685</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>37500</v>
       </c>
@@ -1744,7 +1722,7 @@
         <v>54.916966891307425</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>37530</v>
       </c>
@@ -1752,7 +1730,7 @@
         <v>55.235272179445218</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>37561</v>
       </c>
@@ -1760,7 +1738,7 @@
         <v>56.286648961085703</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>37591</v>
       </c>
@@ -1768,7 +1746,7 @@
         <v>55.639092348226313</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>37622</v>
       </c>
@@ -1776,7 +1754,7 @@
         <v>55.950249973157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>37653</v>
       </c>
@@ -1784,7 +1762,7 @@
         <v>56.534211017775121</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>37681</v>
       </c>
@@ -1792,7 +1770,7 @@
         <v>55.523033652228357</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>37712</v>
       </c>
@@ -1800,7 +1778,7 @@
         <v>55.563843188702982</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>37742</v>
       </c>
@@ -1808,7 +1786,7 @@
         <v>56.294111024594514</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>37773</v>
       </c>
@@ -1816,7 +1794,7 @@
         <v>56.048570481017173</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>37803</v>
       </c>
@@ -1824,7 +1802,7 @@
         <v>56.724323240412502</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>37834</v>
       </c>
@@ -1832,7 +1810,7 @@
         <v>57.577070527528477</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>37865</v>
       </c>
@@ -1840,7 +1818,7 @@
         <v>58.732177481441582</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>37895</v>
       </c>
@@ -1848,7 +1826,7 @@
         <v>60.330371924093434</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>37926</v>
       </c>
@@ -1856,7 +1834,7 @@
         <v>61.791053117371682</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>37956</v>
       </c>
@@ -1864,7 +1842,7 @@
         <v>62.443521026230073</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>37987</v>
       </c>
@@ -1872,7 +1850,7 @@
         <v>64.278145802413263</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>38018</v>
       </c>
@@ -1880,7 +1858,7 @@
         <v>65.034032258366011</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>38047</v>
       </c>
@@ -1888,7 +1866,7 @@
         <v>66.661202220376211</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>38078</v>
       </c>
@@ -1896,7 +1874,7 @@
         <v>67.250689015338835</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>38108</v>
       </c>
@@ -1904,7 +1882,7 @@
         <v>66.355273055172489</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>38139</v>
       </c>
@@ -1912,7 +1890,7 @@
         <v>66.082701484089341</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>38169</v>
       </c>
@@ -1920,7 +1898,7 @@
         <v>65.561888475812921</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>38200</v>
       </c>
@@ -1928,7 +1906,7 @@
         <v>64.481144758068794</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>38231</v>
       </c>
@@ -1936,7 +1914,7 @@
         <v>65.228526409797809</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>38261</v>
       </c>
@@ -1944,7 +1922,7 @@
         <v>64.725320315655338</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>38292</v>
       </c>
@@ -1952,7 +1930,7 @@
         <v>65.37593348806891</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>38322</v>
       </c>
@@ -1960,7 +1938,7 @@
         <v>65.608106490130098</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>38353</v>
       </c>
@@ -1968,7 +1946,7 @@
         <v>65.388128764632469</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>38384</v>
       </c>
@@ -1976,7 +1954,7 @@
         <v>65.877598658511374</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>38412</v>
       </c>
@@ -1984,7 +1962,7 @@
         <v>67.141254642426375</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>38443</v>
       </c>
@@ -1992,7 +1970,7 @@
         <v>65.600154611110739</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>38473</v>
       </c>
@@ -2000,7 +1978,7 @@
         <v>66.300978861073844</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>38504</v>
       </c>
@@ -2008,7 +1986,7 @@
         <v>67.164455621928852</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>38534</v>
       </c>
@@ -2016,7 +1994,7 @@
         <v>67.425535214503185</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>38565</v>
       </c>
@@ -2024,7 +2002,7 @@
         <v>67.465523001727135</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>38596</v>
       </c>
@@ -2032,7 +2010,7 @@
         <v>68.412424086291679</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38626</v>
       </c>
@@ -2040,7 +2018,7 @@
         <v>69.389174078714404</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38657</v>
       </c>
@@ -2048,7 +2026,7 @@
         <v>68.840495383836526</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38687</v>
       </c>
@@ -2056,7 +2034,7 @@
         <v>69.519821974542552</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38718</v>
       </c>
@@ -2064,7 +2042,7 @@
         <v>69.416306326446659</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38749</v>
       </c>
@@ -2072,7 +2050,7 @@
         <v>70.426147040786873</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38777</v>
       </c>
@@ -2080,7 +2058,7 @@
         <v>69.398946124190999</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38808</v>
       </c>
@@ -2088,7 +2066,7 @@
         <v>69.70869181160748</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38838</v>
       </c>
@@ -2096,7 +2074,7 @@
         <v>70.995882692215915</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38869</v>
       </c>
@@ -2104,7 +2082,7 @@
         <v>71.09722700380533</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38899</v>
       </c>
@@ -2112,7 +2090,7 @@
         <v>72.886583726742828</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38930</v>
       </c>
@@ -2120,7 +2098,7 @@
         <v>72.862642231543873</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38961</v>
       </c>
@@ -2128,7 +2106,7 @@
         <v>73.009806911859087</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38991</v>
       </c>
@@ -2136,7 +2114,7 @@
         <v>74.918540809617483</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>39022</v>
       </c>
@@ -2144,7 +2122,7 @@
         <v>77.470231939184274</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>39052</v>
       </c>
@@ -2152,7 +2130,7 @@
         <v>78.566840469341173</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>39083</v>
       </c>
@@ -2160,7 +2138,7 @@
         <v>78.115814084155801</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>39114</v>
       </c>
@@ -2168,7 +2146,7 @@
         <v>79.620164362101818</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>39142</v>
       </c>
@@ -2176,7 +2154,7 @@
         <v>80.777022113344714</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>39173</v>
       </c>
@@ -2184,7 +2162,7 @@
         <v>83.550914300037988</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>39203</v>
       </c>
@@ -2192,7 +2170,7 @@
         <v>86.166427172206369</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>39234</v>
       </c>
@@ -2200,7 +2178,7 @@
         <v>91.116117048678433</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>39264</v>
       </c>
@@ -2208,7 +2186,7 @@
         <v>95.322350254706748</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>39295</v>
       </c>
@@ -2216,7 +2194,7 @@
         <v>98.915281639643155</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>39326</v>
       </c>
@@ -2224,7 +2202,7 @@
         <v>105.02954423277269</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>39356</v>
       </c>
@@ -2232,7 +2210,7 @@
         <v>107.5851254343452</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>39387</v>
       </c>
@@ -2240,7 +2218,7 @@
         <v>110.45332585943603</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>39417</v>
       </c>
@@ -2248,7 +2226,7 @@
         <v>114.39050078061214</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>39448</v>
       </c>
@@ -2256,7 +2234,7 @@
         <v>120.01583017968713</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>39479</v>
       </c>
@@ -2264,7 +2242,7 @@
         <v>128.02840441177617</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>39508</v>
       </c>
@@ -2272,7 +2250,7 @@
         <v>132.06947096045573</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>39539</v>
       </c>
@@ -2280,7 +2258,7 @@
         <v>130.37540375996133</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>39569</v>
       </c>
@@ -2288,7 +2266,7 @@
         <v>130.03518233921287</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>39600</v>
       </c>
@@ -2296,7 +2274,7 @@
         <v>132.52861651196463</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39630</v>
       </c>
@@ -2304,7 +2282,7 @@
         <v>130.10511546870418</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39661</v>
       </c>
@@ -2312,7 +2290,7 @@
         <v>121.10344435063858</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39692</v>
       </c>
@@ -2320,7 +2298,7 @@
         <v>112.76152808586448</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39722</v>
       </c>
@@ -2328,7 +2306,7 @@
         <v>97.58430378812001</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39753</v>
       </c>
@@ -2336,7 +2314,7 @@
         <v>89.547427171324472</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39783</v>
       </c>
@@ -2344,7 +2322,7 @@
         <v>85.972977723222186</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39814</v>
       </c>
@@ -2352,7 +2330,7 @@
         <v>86.421348424284247</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39845</v>
       </c>
@@ -2360,7 +2338,7 @@
         <v>84.155982661765677</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39873</v>
       </c>
@@ -2368,7 +2346,7 @@
         <v>84.015139101540086</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39904</v>
       </c>
@@ -2376,7 +2354,7 @@
         <v>87.211023165588799</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39934</v>
       </c>
@@ -2384,7 +2362,7 @@
         <v>93.341410330009296</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39965</v>
       </c>
@@ -2392,7 +2370,7 @@
         <v>93.326916583544005</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39995</v>
       </c>
@@ -2400,7 +2378,7 @@
         <v>90.705988637070789</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>40026</v>
       </c>
@@ -2408,7 +2386,7 @@
         <v>93.458807590331972</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>40057</v>
       </c>
@@ -2416,7 +2394,7 @@
         <v>93.044925709258962</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>40087</v>
       </c>
@@ -2424,7 +2402,7 @@
         <v>94.786334471460108</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>40118</v>
       </c>
@@ -2432,7 +2410,7 @@
         <v>98.808240985745613</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>40148</v>
       </c>
@@ -2440,7 +2418,7 @@
         <v>100.65974676348125</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>40179</v>
       </c>
@@ -2448,7 +2426,7 @@
         <v>101.49552559347393</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>40210</v>
       </c>
@@ -2456,7 +2434,7 @@
         <v>98.979386679281731</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>40238</v>
       </c>
@@ -2464,7 +2442,7 @@
         <v>96.308920331864229</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>40269</v>
       </c>
@@ -2472,7 +2450,7 @@
         <v>96.843720552095832</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>40299</v>
       </c>
@@ -2480,7 +2458,7 @@
         <v>96.287373861320674</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>40330</v>
       </c>
@@ -2488,7 +2466,7 @@
         <v>95.750055883136824</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>40360</v>
       </c>
@@ -2496,7 +2474,7 @@
         <v>99.960174812561633</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>40391</v>
       </c>
@@ -2504,7 +2482,7 @@
         <v>107.66610706924877</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>40422</v>
       </c>
@@ -2512,7 +2490,7 @@
         <v>114.13213959784272</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>40452</v>
       </c>
@@ -2520,7 +2498,7 @@
         <v>120.07213927332403</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>40483</v>
       </c>
@@ -2528,7 +2506,7 @@
         <v>124.12062280743339</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>40513</v>
       </c>
@@ -2536,7 +2514,7 @@
         <v>129.3098708683066</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>40544</v>
       </c>
@@ -2544,7 +2522,7 @@
         <v>133.68731541218941</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>40575</v>
       </c>
@@ -2552,7 +2530,7 @@
         <v>137.62240001491392</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>40603</v>
       </c>
@@ -2560,7 +2538,7 @@
         <v>134.27942316454204</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40634</v>
       </c>
@@ -2568,7 +2546,7 @@
         <v>136.4202438571842</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40664</v>
       </c>
@@ -2576,7 +2554,7 @@
         <v>135.16333931522834</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40695</v>
       </c>
@@ -2584,7 +2562,7 @@
         <v>134.95586798495637</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40725</v>
       </c>
@@ -2592,7 +2570,7 @@
         <v>133.19896606404478</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40756</v>
       </c>
@@ -2600,7 +2578,7 @@
         <v>132.9764676496892</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40787</v>
       </c>
@@ -2608,7 +2586,7 @@
         <v>130.40936988673025</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40817</v>
       </c>
@@ -2616,7 +2594,7 @@
         <v>125.71902110433562</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40848</v>
       </c>
@@ -2624,7 +2602,7 @@
         <v>126.11929200837886</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40878</v>
       </c>
@@ -2632,7 +2610,7 @@
         <v>122.06128774194863</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40909</v>
       </c>
@@ -2640,7 +2618,7 @@
         <v>122.40138703068955</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40940</v>
       </c>
@@ -2648,7 +2626,7 @@
         <v>125.38292659308009</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40969</v>
       </c>
@@ -2656,7 +2634,7 @@
         <v>125.76324918137013</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>41000</v>
       </c>
@@ -2664,7 +2642,7 @@
         <v>124.38102211438854</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>41030</v>
       </c>
@@ -2672,7 +2650,7 @@
         <v>119.04065513310724</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>41061</v>
       </c>
@@ -2680,7 +2658,7 @@
         <v>115.87005888125145</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>41091</v>
       </c>
@@ -2688,7 +2666,7 @@
         <v>122.12877421581177</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>41122</v>
       </c>
@@ -2696,7 +2674,7 @@
         <v>123.35385621660576</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>41153</v>
       </c>
@@ -2704,7 +2682,7 @@
         <v>125.22304522285901</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>41183</v>
       </c>
@@ -2712,7 +2690,7 @@
         <v>124.04151276080162</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>41214</v>
       </c>
@@ -2720,7 +2698,7 @@
         <v>123.63866045006203</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>41244</v>
       </c>
@@ -2728,7 +2706,7 @@
         <v>122.86475534293109</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>41275</v>
       </c>
@@ -2736,7 +2714,7 @@
         <v>123.39045525367366</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>41306</v>
       </c>
@@ -2744,7 +2722,7 @@
         <v>123.25195428283806</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>41334</v>
       </c>
@@ -2752,7 +2730,7 @@
         <v>122.88793241362539</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>41365</v>
       </c>
@@ -2760,7 +2738,7 @@
         <v>122.87156068790064</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>41395</v>
       </c>
@@ -2768,7 +2746,7 @@
         <v>122.09160124168872</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>41426</v>
       </c>
@@ -2776,7 +2754,7 @@
         <v>120.92326682833009</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>41456</v>
       </c>
@@ -2784,7 +2762,7 @@
         <v>117.89921473942348</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>41487</v>
       </c>
@@ -2792,7 +2770,7 @@
         <v>116.153422763965</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>41518</v>
       </c>
@@ -2800,7 +2778,7 @@
         <v>116.40536668640762</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>41548</v>
       </c>
@@ -2808,7 +2786,7 @@
         <v>118.75319687353954</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>41579</v>
       </c>
@@ -2816,7 +2794,7 @@
         <v>118.67885624962143</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41609</v>
       </c>
@@ -2824,7 +2802,7 @@
         <v>118.19520320739767</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41640</v>
       </c>
@@ -2832,7 +2810,7 @@
         <v>116.22440442117495</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41671</v>
       </c>
@@ -2840,7 +2818,7 @@
         <v>118.47050984644193</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41699</v>
       </c>
@@ -2848,7 +2826,7 @@
         <v>122.10233348649523</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41730</v>
       </c>
@@ -2856,7 +2834,7 @@
         <v>121.45684139904604</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41760</v>
       </c>
@@ -2864,7 +2842,7 @@
         <v>121.30475734611656</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41791</v>
       </c>
@@ -2872,7 +2850,7 @@
         <v>119.29498812264622</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41821</v>
       </c>
@@ -2880,7 +2858,7 @@
         <v>116.37468149135118</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41852</v>
       </c>
@@ -2888,7 +2866,7 @@
         <v>113.02354947542455</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41883</v>
       </c>
@@ -2896,7 +2874,7 @@
         <v>109.34977448740584</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41913</v>
       </c>
@@ -2904,7 +2882,7 @@
         <v>109.35537035806981</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41944</v>
       </c>
@@ -2912,7 +2890,7 @@
         <v>108.23683483031979</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41974</v>
       </c>
@@ -2920,7 +2898,7 @@
         <v>105.1499411890838</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>42005</v>
       </c>
@@ -2928,7 +2906,7 @@
         <v>100.71195915697933</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>42036</v>
       </c>
@@ -2936,7 +2914,7 @@
         <v>98.450411487002583</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>42064</v>
       </c>
@@ -2944,7 +2922,7 @@
         <v>95.605668219361689</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>42095</v>
       </c>
@@ -2952,7 +2930,7 @@
         <v>94.696895171532333</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>42125</v>
       </c>
@@ -2960,7 +2938,7 @@
         <v>95.03048510379233</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>42156</v>
       </c>
@@ -2968,7 +2946,7 @@
         <v>94.543206733493776</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>42186</v>
       </c>
@@ -2976,7 +2954,7 @@
         <v>93.803221381518327</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>42217</v>
       </c>
@@ -2984,7 +2962,7 @@
         <v>89.564194169971188</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>42248</v>
       </c>
@@ -2992,7 +2970,7 @@
         <v>89.019701458323553</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>42278</v>
       </c>
@@ -3000,7 +2978,7 @@
         <v>90.369508685626712</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>42309</v>
       </c>
@@ -3008,7 +2986,7 @@
         <v>87.70669525008654</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>42339</v>
       </c>
@@ -3016,7 +2994,7 @@
         <v>87.061005732853573</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>42370</v>
       </c>
@@ -3024,7 +3002,7 @@
         <v>84.861238424402572</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>42401</v>
       </c>
@@ -3032,7 +3010,7 @@
         <v>86.046383419250574</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>42430</v>
       </c>
@@ -3040,7 +3018,7 @@
         <v>87.422204943485895</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>42461</v>
       </c>
@@ -3048,7 +3026,7 @@
         <v>89.177346068696593</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>42491</v>
       </c>
@@ -3056,7 +3034,7 @@
         <v>90.583839418895238</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>42522</v>
       </c>
@@ -3064,7 +3042,7 @@
         <v>93.836059260597139</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>42552</v>
       </c>
@@ -3072,7 +3050,7 @@
         <v>92.973172589459068</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>42583</v>
       </c>
@@ -3080,7 +3058,7 @@
         <v>95.294724328825737</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42614</v>
       </c>
@@ -3088,7 +3066,7 @@
         <v>96.086100431050951</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42644</v>
       </c>
@@ -3096,7 +3074,7 @@
         <v>95.92635654867054</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42675</v>
       </c>
@@ -3104,7 +3082,7 @@
         <v>95.799278617425657</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42705</v>
       </c>
@@ -3112,7 +3090,7 @@
         <v>95.086356945122645</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42736</v>
       </c>
@@ -3120,7 +3098,7 @@
         <v>97.702430562659785</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42767</v>
       </c>
@@ -3128,7 +3106,7 @@
         <v>98.119069876432334</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42795</v>
       </c>
@@ -3136,7 +3114,7 @@
         <v>96.240328157749403</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42826</v>
       </c>
@@ -3144,7 +3122,7 @@
         <v>95.136271435286886</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42856</v>
       </c>
@@ -3152,7 +3130,7 @@
         <v>97.399869830618243</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42888</v>
       </c>
@@ -3160,7 +3138,7 @@
         <v>97.966066966256307</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42917</v>
       </c>
@@ -3168,7 +3146,7 @@
         <v>100.23240520288037</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42948</v>
       </c>
@@ -3176,7 +3154,7 @@
         <v>99.338330224025697</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42979</v>
       </c>
@@ -3184,7 +3162,7 @@
         <v>99.887133315590205</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>43009</v>
       </c>
@@ -3192,7 +3170,7 @@
         <v>98.912132230578692</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>43040</v>
       </c>
@@ -3200,7 +3178,7 @@
         <v>98.934208584369813</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>43070</v>
       </c>
@@ -3208,7 +3186,7 @@
         <v>96.406066018554256</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>43101</v>
       </c>
@@ -3216,7 +3194,7 @@
         <v>96.80294729738273</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>43132</v>
       </c>
@@ -3224,7 +3202,7 @@
         <v>97.875309196410214</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>43161</v>
       </c>
@@ -3232,7 +3210,7 @@
         <v>99.042066242010378</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>43192</v>
       </c>
@@ -3240,7 +3218,7 @@
         <v>98.557991831499152</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>43223</v>
       </c>
@@ -3248,7 +3226,7 @@
         <v>98.672771594809703</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>43252</v>
       </c>
@@ -3256,7 +3234,7 @@
         <v>96.950991723958538</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>43283</v>
       </c>
@@ -3264,7 +3242,7 @@
         <v>95.135179101762546</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>43313</v>
       </c>
@@ -3272,7 +3250,7 @@
         <v>95.969576183922669</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>43344</v>
       </c>
@@ -3280,7 +3258,7 @@
         <v>94.239430408790298</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>43374</v>
       </c>
@@ -3288,7 +3266,7 @@
         <v>93.3088521554686</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>43405</v>
       </c>
@@ -3296,7 +3274,7 @@
         <v>92.195534253777666</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>43435</v>
       </c>
@@ -3304,7 +3282,7 @@
         <v>92.249603458964941</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>43466</v>
       </c>
@@ -3312,7 +3290,7 @@
         <v>93.315060319903296</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>43497</v>
       </c>
@@ -3320,7 +3298,7 @@
         <v>94.009827246068099</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>43525</v>
       </c>
@@ -3328,7 +3306,7 @@
         <v>93.158414966533911</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>43556</v>
       </c>
@@ -3336,7 +3314,7 @@
         <v>93.611370171862163</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>43586</v>
       </c>
@@ -3344,7 +3322,7 @@
         <v>94.267664257664137</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43618</v>
       </c>
@@ -3352,7 +3330,7 @@
         <v>95.404993031098414</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43647</v>
       </c>
@@ -3360,7 +3338,7 @@
         <v>95.14701488199006</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43678</v>
       </c>
@@ -3368,7 +3346,7 @@
         <v>94.084177362431817</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43709</v>
       </c>
@@ -3376,7 +3354,7 @@
         <v>93.368634768546059</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43739</v>
       </c>
@@ -3384,7 +3362,7 @@
         <v>95.247349769978584</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43771</v>
       </c>
@@ -3392,7 +3370,7 @@
         <v>98.626175613962104</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43800</v>
       </c>
@@ -3400,7 +3378,7 @@
         <v>101.00678467226496</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43831</v>
       </c>
@@ -3408,7 +3386,7 @@
         <v>102.5151015442658</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43862</v>
       </c>
@@ -3416,7 +3394,7 @@
         <v>99.418984683378341</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43891</v>
       </c>
@@ -3424,7 +3402,7 @@
         <v>95.177238817172721</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43922</v>
       </c>
@@ -3432,7 +3410,7 @@
         <v>92.526875587249066</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43952</v>
       </c>
@@ -3440,7 +3418,7 @@
         <v>91.135360588162669</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43983</v>
       </c>
@@ -3448,7 +3426,7 @@
         <v>93.255843352710514</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44013</v>
       </c>
@@ -3456,7 +3434,7 @@
         <v>94.041451710554767</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44044</v>
       </c>
@@ -3464,7 +3442,7 @@
         <v>95.915944445938479</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44075</v>
       </c>
@@ -3472,7 +3450,7 @@
         <v>98.011497887472643</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>44105</v>
       </c>
@@ -3480,7 +3458,7 @@
         <v>101.3763809972607</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44136</v>
       </c>
@@ -3488,7 +3466,7 @@
         <v>105.58600130353233</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>44166</v>
       </c>
@@ -3496,7 +3474,7 @@
         <v>108.59683960847201</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44197</v>
       </c>
@@ -3504,7 +3482,7 @@
         <v>113.5255331944346</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>44228</v>
       </c>
@@ -3512,7 +3490,7 @@
         <v>116.57051072273163</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44256</v>
       </c>
@@ -3520,7 +3498,7 @@
         <v>119.22932965492514</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>44287</v>
       </c>
@@ -3528,7 +3506,7 @@
         <v>122.06626942216495</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44317</v>
       </c>
@@ -3536,7 +3514,7 @@
         <v>128.12555865773592</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44348</v>
       </c>
@@ -3544,7 +3522,7 @@
         <v>125.27763455670987</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44378</v>
       </c>
@@ -3552,7 +3530,7 @@
         <v>124.56485837282088</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>44409</v>
       </c>
@@ -3560,7 +3538,7 @@
         <v>127.95813590564271</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44440</v>
       </c>
@@ -3568,7 +3546,7 @@
         <v>129.1891922766022</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>44470</v>
       </c>
@@ -3576,7 +3554,7 @@
         <v>133.22436853297222</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44501</v>
       </c>
@@ -3584,7 +3562,7 @@
         <v>135.31485290573889</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>44531</v>
       </c>
@@ -3592,7 +3570,7 @@
         <v>133.69110309418375</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44562</v>
       </c>
@@ -3600,7 +3578,7 @@
         <v>135.59415474947579</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>44593</v>
       </c>
@@ -3608,7 +3586,7 @@
         <v>141.06988276821363</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44621</v>
       </c>
@@ -3616,7 +3594,7 @@
         <v>159.71318001343587</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44652</v>
       </c>
@@ -3624,7 +3602,7 @@
         <v>158.43572048568788</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44682</v>
       </c>
@@ -3632,60 +3610,828 @@
         <v>157.88527888175696</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44713</v>
       </c>
       <c r="B391" s="2">
-        <v>154.2558712348773</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+        <v>154.69999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44743</v>
       </c>
       <c r="B392" s="2">
-        <v>140.93553653255782</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A393" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B393" s="5">
+        <v>140.69999999999999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B393" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A394" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B394" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A395" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B395" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A396" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B396" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A397" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B397" s="5">
-        <v>140</v>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B394" s="2">
+        <v>368.48027923534698</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B395" s="2">
+        <v>366.81439895218</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B396" s="2">
+        <v>367.29435460865898</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B397" s="2">
+        <v>366.036238149106</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B398" s="2">
+        <v>113.318996829132</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B399" s="2">
+        <v>113.789438822553</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B400" s="2">
+        <v>114.91127810496199</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B401" s="2">
+        <v>115.649054315021</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B402" s="2">
+        <v>116.367634709106</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B403" s="2">
+        <v>116.459851333418</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B404" s="2">
+        <v>115.202664487246</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B405" s="2">
+        <v>113.73625216017101</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B406" s="2">
+        <v>113.382502109162</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B407" s="2">
+        <v>113.191324530656</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B408" s="2">
+        <v>113.246404575196</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B409" s="2">
+        <v>113.10202225634301</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B410" s="2">
+        <v>109.558795239969</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B411" s="2">
+        <v>111.024507284984</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B412" s="2">
+        <v>114.51971683641</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B413" s="2">
+        <v>116.818337054697</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B414" s="2">
+        <v>119.057150667535</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B415" s="2">
+        <v>119.344461364483</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B416" s="2">
+        <v>115.427562088831</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B417" s="2">
+        <v>110.85879858385201</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B418" s="2">
+        <v>109.756652691396</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B419" s="2">
+        <v>109.16101862073</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B420" s="2">
+        <v>109.332626355269</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B421" s="2">
+        <v>108.882787891037</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B422" s="2">
+        <v>109.62772350247</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B423" s="2">
+        <v>111.150825948057</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>46082</v>
+      </c>
+      <c r="B424" s="2">
+        <v>114.78289149170701</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>46113</v>
+      </c>
+      <c r="B425" s="2">
+        <v>117.17151488322</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>46143</v>
+      </c>
+      <c r="B426" s="2">
+        <v>119.497989923473</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>46174</v>
+      </c>
+      <c r="B427" s="2">
+        <v>119.796550358077</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>46204</v>
+      </c>
+      <c r="B428" s="2">
+        <v>115.726283700892</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>46235</v>
+      </c>
+      <c r="B429" s="2">
+        <v>110.97862887237</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>46266</v>
+      </c>
+      <c r="B430" s="2">
+        <v>109.83332812254</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>46296</v>
+      </c>
+      <c r="B431" s="2">
+        <v>109.214371818817</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>46327</v>
+      </c>
+      <c r="B432" s="2">
+        <v>109.39269890635499</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>46357</v>
+      </c>
+      <c r="B433" s="2">
+        <v>108.92524688034401</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>46388</v>
+      </c>
+      <c r="B434" s="2">
+        <v>110.86632244961901</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>46419</v>
+      </c>
+      <c r="B435" s="2">
+        <v>112.406036686676</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>46447</v>
+      </c>
+      <c r="B436" s="2">
+        <v>116.077715531187</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>46478</v>
+      </c>
+      <c r="B437" s="2">
+        <v>118.492390560787</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>46508</v>
+      </c>
+      <c r="B438" s="2">
+        <v>120.844239415088</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>46539</v>
+      </c>
+      <c r="B439" s="2">
+        <v>121.146056113705</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>46569</v>
+      </c>
+      <c r="B440" s="2">
+        <v>117.031396893737</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>46600</v>
+      </c>
+      <c r="B441" s="2">
+        <v>112.231961535145</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>46631</v>
+      </c>
+      <c r="B442" s="2">
+        <v>111.07416950655499</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>46661</v>
+      </c>
+      <c r="B443" s="2">
+        <v>110.448462525569</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>46692</v>
+      </c>
+      <c r="B444" s="2">
+        <v>110.628734546228</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>46722</v>
+      </c>
+      <c r="B445" s="2">
+        <v>110.15618423178501</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>46753</v>
+      </c>
+      <c r="B446" s="2">
+        <v>112.112336364977</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>46784</v>
+      </c>
+      <c r="B447" s="2">
+        <v>113.65206661627499</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>46813</v>
+      </c>
+      <c r="B448" s="2">
+        <v>117.32378364913799</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>46844</v>
+      </c>
+      <c r="B449" s="2">
+        <v>119.738483793261</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>46874</v>
+      </c>
+      <c r="B450" s="2">
+        <v>122.090357108642</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>46905</v>
+      </c>
+      <c r="B451" s="2">
+        <v>122.39217694638999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>46935</v>
+      </c>
+      <c r="B452" s="2">
+        <v>118.277474930726</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>46966</v>
+      </c>
+      <c r="B453" s="2">
+        <v>113.477989654224</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>46997</v>
+      </c>
+      <c r="B454" s="2">
+        <v>112.320185583685</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>47027</v>
+      </c>
+      <c r="B455" s="2">
+        <v>111.694472094855</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>47058</v>
+      </c>
+      <c r="B456" s="2">
+        <v>111.874745990484</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>47088</v>
+      </c>
+      <c r="B457" s="2">
+        <v>111.402190761146</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>47119</v>
+      </c>
+      <c r="B458" s="2">
+        <v>113.41186284602099</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>47150</v>
+      </c>
+      <c r="B459" s="2">
+        <v>114.95212854894901</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>47178</v>
+      </c>
+      <c r="B460" s="2">
+        <v>118.625122446296</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>47209</v>
+      </c>
+      <c r="B461" s="2">
+        <v>121.040662318759</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>47239</v>
+      </c>
+      <c r="B462" s="2">
+        <v>123.39335351402499</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>47270</v>
+      </c>
+      <c r="B463" s="2">
+        <v>123.69527831166801</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>47300</v>
+      </c>
+      <c r="B464" s="2">
+        <v>119.57914538049</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>47331</v>
+      </c>
+      <c r="B465" s="2">
+        <v>114.777991050455</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>47362</v>
+      </c>
+      <c r="B466" s="2">
+        <v>113.619784345703</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>47392</v>
+      </c>
+      <c r="B467" s="2">
+        <v>112.993853260766</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>47423</v>
+      </c>
+      <c r="B468" s="2">
+        <v>113.17418984786499</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>47453</v>
+      </c>
+      <c r="B469" s="2">
+        <v>112.701470284243</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>47484</v>
+      </c>
+      <c r="B470" s="2">
+        <v>114.580511658793</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>47515</v>
+      </c>
+      <c r="B471" s="2">
+        <v>116.118820126572</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>47543</v>
+      </c>
+      <c r="B472" s="2">
+        <v>119.787146704023</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>47574</v>
+      </c>
+      <c r="B473" s="2">
+        <v>122.199617119357</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>47604</v>
+      </c>
+      <c r="B474" s="2">
+        <v>124.549318720104</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>47635</v>
+      </c>
+      <c r="B475" s="2">
+        <v>124.85085985808</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>47665</v>
+      </c>
+      <c r="B476" s="2">
+        <v>120.739957349184</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>47696</v>
+      </c>
+      <c r="B477" s="2">
+        <v>115.944903906805</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>47727</v>
+      </c>
+      <c r="B478" s="2">
+        <v>114.788168949991</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>47757</v>
+      </c>
+      <c r="B479" s="2">
+        <v>114.163033243616</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>47788</v>
+      </c>
+      <c r="B480" s="2">
+        <v>114.34314067472801</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>47818</v>
+      </c>
+      <c r="B481" s="2">
+        <v>113.87102180184699</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>47849</v>
+      </c>
+      <c r="B482" s="2">
+        <v>115.74514337184399</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>47880</v>
+      </c>
+      <c r="B483" s="2">
+        <v>117.283225180736</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>47908</v>
+      </c>
+      <c r="B484" s="2">
+        <v>120.951011256177</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>47939</v>
+      </c>
+      <c r="B485" s="2">
+        <v>123.363126211035</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>47969</v>
+      </c>
+      <c r="B486" s="2">
+        <v>125.712481599849</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>48000</v>
+      </c>
+      <c r="B487" s="2">
+        <v>126.013978307868</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>48030</v>
+      </c>
+      <c r="B488" s="2">
+        <v>121.90368151141899</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>48061</v>
+      </c>
+      <c r="B489" s="2">
+        <v>117.10933458629501</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>48092</v>
+      </c>
+      <c r="B490" s="2">
+        <v>115.95277006620699</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>48122</v>
+      </c>
+      <c r="B491" s="2">
+        <v>115.327726469163</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>48153</v>
+      </c>
+      <c r="B492" s="2">
+        <v>115.507807362717</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>48183</v>
+      </c>
+      <c r="B493" s="2">
+        <v>115.03575805321699</v>
       </c>
     </row>
   </sheetData>

--- a/DataFeeds/FoodPriceIndex_FAO.xlsx
+++ b/DataFeeds/FoodPriceIndex_FAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meesam/Sandbox/Nutrien/Canpotex/DataFeeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E461DA73-271F-084D-92C2-39FA30A78350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97177017-4EFE-0D40-9BB9-78E1AE083D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="19420" windowHeight="10420" xr2:uid="{B2DA42F1-6EA0-4C56-BA21-E21AAE3FA26C}"/>
+    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="18380" xr2:uid="{B2DA42F1-6EA0-4C56-BA21-E21AAE3FA26C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,8 +48,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -154,10 +154,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -166,6 +163,9 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -482,3955 +482,4051 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F37AE00-0E9B-4B95-9B55-969227118D25}">
-  <dimension ref="A1:B493"/>
+  <dimension ref="A1:B505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="B391" sqref="B391:B493"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="B408" sqref="B408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>32874</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>64.145081201786851</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>32905</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>64.453559576792074</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>32933</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>63.787064169890918</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>32964</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>65.76675418813106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>32994</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>64.378873668989087</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>33025</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>63.702498675118768</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>33055</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>62.543558381061445</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>33086</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>61.484431549066706</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>33117</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>60.991468535235995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>33147</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>61.098352565168597</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>33178</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>61.870602459777402</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>33208</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>61.939877523243254</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>33239</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>60.796240628135578</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>33270</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>61.532715562033815</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>33298</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>61.980544755948991</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>33329</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>60.719933677837759</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>33359</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>60.579912457586794</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>33390</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>61.038044047192798</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>33420</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>61.844881182256749</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>33451</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>61.434257534218361</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>33482</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>62.109048528577269</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>33512</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>64.277817553486329</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>33543</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>64.396867832208088</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>33573</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>64.052386881204967</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>33604</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>64.782244426166685</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <v>33635</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>65.673422077701602</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>33664</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>66.126414021954176</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>33695</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>64.484829234119118</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>33725</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>64.820194438045917</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>33756</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>65.610806377929023</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>33786</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>64.434171309198575</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>33817</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>62.805213785822566</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>33848</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>63.494937305594839</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>33878</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>61.524609400943248</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>33909</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>62.42391234895284</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>33939</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>61.033889412961379</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <v>33970</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>61.345743229630394</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="4">
         <v>34001</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>61.189378451122337</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <v>34029</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>62.885765307125261</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="4">
         <v>34060</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>62.528512433818491</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="4">
         <v>34090</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>62.049882158414796</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="4">
         <v>34121</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>61.48045055879598</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="4">
         <v>34151</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>61.876108006719946</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="4">
         <v>34182</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>60.532651112243393</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="4">
         <v>34213</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>60.920111165649729</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="4">
         <v>34243</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>61.188198647335163</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="4">
         <v>34274</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>62.996001440845333</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="4">
         <v>34304</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>64.349348913965017</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="4">
         <v>34335</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>64.519150855859451</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="4">
         <v>34366</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>64.117897578875485</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="4">
         <v>34394</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>64.524015912722419</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="4">
         <v>34425</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>63.701783024381974</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="4">
         <v>34455</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>65.582544352046156</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="4">
         <v>34486</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>65.192204236518791</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="4">
         <v>34516</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>63.9207343138483</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="4">
         <v>34547</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>66.195815161815858</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="4">
         <v>34578</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>69.282487624899304</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="4">
         <v>34608</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>69.889742328079393</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="4">
         <v>34639</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>73.243885904886568</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="4">
         <v>34669</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>73.100813231220215</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="4">
         <v>34700</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>72.864546929358156</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="4">
         <v>34731</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>74.431623191575952</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="4">
         <v>34759</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>75.134645715163558</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65" s="4">
         <v>34790</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>73.976631598526353</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="4">
         <v>34820</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>73.992412145086675</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67" s="4">
         <v>34851</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>75.08616968366421</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68" s="4">
         <v>34881</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>79.522274009389974</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69" s="4">
         <v>34912</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>78.048018086417244</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70" s="4">
         <v>34943</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>78.25739342379461</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71" s="4">
         <v>34973</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>80.367707962405191</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72" s="4">
         <v>35004</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>79.823933234258618</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73" s="4">
         <v>35034</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>77.999578485084868</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74" s="4">
         <v>35065</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>76.990016657356108</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75" s="4">
         <v>35096</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>77.460071496561312</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="A76" s="4">
         <v>35125</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>78.584280191300692</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="A77" s="4">
         <v>35156</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>80.776725121912733</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="A78" s="4">
         <v>35186</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>82.362529573585249</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79" s="4">
         <v>35217</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>80.462962768059867</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="A80" s="4">
         <v>35247</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>80.238727437859581</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="A81" s="4">
         <v>35278</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>79.859810007753339</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="A82" s="4">
         <v>35309</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>76.858067801415004</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="A83" s="4">
         <v>35339</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>74.128406288531721</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="A84" s="4">
         <v>35370</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>72.53318515528926</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="A85" s="4">
         <v>35400</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>71.365344959469368</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="A86" s="4">
         <v>35431</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>70.862247512350237</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="A87" s="4">
         <v>35462</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>70.981240179584844</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88" s="4">
         <v>35490</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>72.778374112988388</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="A89" s="4">
         <v>35521</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>73.379431145137971</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90" s="4">
         <v>35551</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>72.772802072296187</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91" s="4">
         <v>35582</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>70.226572695742249</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92" s="4">
         <v>35612</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>68.399429507407731</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="A93" s="4">
         <v>35643</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>69.811112284382574</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94" s="4">
         <v>35674</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>69.957810019919691</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="A95" s="4">
         <v>35704</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>69.750234297317945</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="A96" s="4">
         <v>35735</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>70.308184991539918</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="A97" s="4">
         <v>35765</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>68.038545344187725</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98" s="4">
         <v>35796</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>67.370080351774575</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="A99" s="4">
         <v>35827</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>67.612546687674481</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="A100" s="4">
         <v>35855</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>67.403821353660007</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="A101" s="4">
         <v>35886</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>66.847627111404222</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="A102" s="4">
         <v>35916</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>66.432982068263271</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103" s="4">
         <v>35947</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>64.242966646965897</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="A104" s="4">
         <v>35977</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>64.312407036548464</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="A105" s="4">
         <v>36008</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>62.375225186001686</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="A106" s="4">
         <v>36039</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>61.930315225298614</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="A107" s="4">
         <v>36069</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>62.698031806263586</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="A108" s="4">
         <v>36100</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>62.609658795629755</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="A109" s="4">
         <v>36130</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>62.08901135330364</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="A110" s="4">
         <v>36161</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>60.991732789577476</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="A111" s="4">
         <v>36192</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>58.41657690544946</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="A112" s="4">
         <v>36220</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>57.016277396491787</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="A113" s="4">
         <v>36251</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>55.813991498929084</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="A114" s="4">
         <v>36281</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>55.387198736101027</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="A115" s="4">
         <v>36312</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>54.56035351424736</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="A116" s="4">
         <v>36342</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>52.590340979375945</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="A117" s="4">
         <v>36373</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>54.378029522851079</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="A118" s="4">
         <v>36404</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>54.589401264583394</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="A119" s="4">
         <v>36434</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>53.240734555332203</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="A120" s="4">
         <v>36465</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>53.170004563508776</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="A121" s="4">
         <v>36495</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>51.880353853016082</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="A122" s="4">
         <v>36526</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>52.631477004418443</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="A123" s="4">
         <v>36557</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>52.290871987879896</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="A124" s="4">
         <v>36586</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>52.816466592972773</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="A125" s="4">
         <v>36617</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>53.355130560382428</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="A126" s="4">
         <v>36647</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>53.634471342232921</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="A127" s="4">
         <v>36678</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>53.770701606153096</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+      <c r="A128" s="4">
         <v>36708</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>54.025359796220656</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="A129" s="4">
         <v>36739</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>53.161883344259216</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+      <c r="A130" s="4">
         <v>36770</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>52.583189289621828</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+      <c r="A131" s="4">
         <v>36800</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>53.380776191114137</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+      <c r="A132" s="4">
         <v>36831</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>53.815876206812518</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+      <c r="A133" s="4">
         <v>36861</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>54.449967265262387</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+      <c r="A134" s="4">
         <v>36892</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>53.809420571022173</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+      <c r="A135" s="4">
         <v>36923</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>54.248992309421141</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+      <c r="A136" s="4">
         <v>36951</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>55.077352606468807</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+      <c r="A137" s="4">
         <v>36982</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>54.619706188718759</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+      <c r="A138" s="4">
         <v>37012</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>55.409242189245468</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+      <c r="A139" s="4">
         <v>37043</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="1">
         <v>54.770389950508417</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+      <c r="A140" s="4">
         <v>37073</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <v>56.499642271702314</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+      <c r="A141" s="4">
         <v>37104</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <v>56.579570230941911</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+      <c r="A142" s="4">
         <v>37135</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <v>55.3793745240296</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+      <c r="A143" s="4">
         <v>37165</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>54.167684992672569</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+      <c r="A144" s="4">
         <v>37196</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>54.736487203445066</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+      <c r="A145" s="4">
         <v>37226</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <v>54.273879353398911</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+      <c r="A146" s="4">
         <v>37257</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>53.454751610247861</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+      <c r="A147" s="4">
         <v>37288</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>51.669056784069753</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+      <c r="A148" s="4">
         <v>37316</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>52.020133878077331</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+      <c r="A149" s="4">
         <v>37347</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="1">
         <v>51.039979802352384</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+      <c r="A150" s="4">
         <v>37377</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>50.467840647466993</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+      <c r="A151" s="4">
         <v>37408</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <v>51.326108069235154</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+      <c r="A152" s="4">
         <v>37438</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>51.995040814632851</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+      <c r="A153" s="4">
         <v>37469</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <v>53.416662720212685</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+      <c r="A154" s="4">
         <v>37500</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>54.916966891307425</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+      <c r="A155" s="4">
         <v>37530</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>55.235272179445218</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+      <c r="A156" s="4">
         <v>37561</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>56.286648961085703</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+      <c r="A157" s="4">
         <v>37591</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <v>55.639092348226313</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+      <c r="A158" s="4">
         <v>37622</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="1">
         <v>55.950249973157</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+      <c r="A159" s="4">
         <v>37653</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <v>56.534211017775121</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+      <c r="A160" s="4">
         <v>37681</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <v>55.523033652228357</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+      <c r="A161" s="4">
         <v>37712</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="1">
         <v>55.563843188702982</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+      <c r="A162" s="4">
         <v>37742</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="1">
         <v>56.294111024594514</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+      <c r="A163" s="4">
         <v>37773</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="1">
         <v>56.048570481017173</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+      <c r="A164" s="4">
         <v>37803</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="1">
         <v>56.724323240412502</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+      <c r="A165" s="4">
         <v>37834</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="1">
         <v>57.577070527528477</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+      <c r="A166" s="4">
         <v>37865</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="1">
         <v>58.732177481441582</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+      <c r="A167" s="4">
         <v>37895</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="1">
         <v>60.330371924093434</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+      <c r="A168" s="4">
         <v>37926</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="1">
         <v>61.791053117371682</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+      <c r="A169" s="4">
         <v>37956</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="1">
         <v>62.443521026230073</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+      <c r="A170" s="4">
         <v>37987</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="1">
         <v>64.278145802413263</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+      <c r="A171" s="4">
         <v>38018</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="1">
         <v>65.034032258366011</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+      <c r="A172" s="4">
         <v>38047</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="1">
         <v>66.661202220376211</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+      <c r="A173" s="4">
         <v>38078</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="1">
         <v>67.250689015338835</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+      <c r="A174" s="4">
         <v>38108</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="1">
         <v>66.355273055172489</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+      <c r="A175" s="4">
         <v>38139</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="1">
         <v>66.082701484089341</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+      <c r="A176" s="4">
         <v>38169</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="1">
         <v>65.561888475812921</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+      <c r="A177" s="4">
         <v>38200</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="1">
         <v>64.481144758068794</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+      <c r="A178" s="4">
         <v>38231</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="1">
         <v>65.228526409797809</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+      <c r="A179" s="4">
         <v>38261</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="1">
         <v>64.725320315655338</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+      <c r="A180" s="4">
         <v>38292</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="1">
         <v>65.37593348806891</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+      <c r="A181" s="4">
         <v>38322</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="1">
         <v>65.608106490130098</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+      <c r="A182" s="4">
         <v>38353</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="1">
         <v>65.388128764632469</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+      <c r="A183" s="4">
         <v>38384</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="1">
         <v>65.877598658511374</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+      <c r="A184" s="4">
         <v>38412</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="1">
         <v>67.141254642426375</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+      <c r="A185" s="4">
         <v>38443</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="1">
         <v>65.600154611110739</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+      <c r="A186" s="4">
         <v>38473</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="1">
         <v>66.300978861073844</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+      <c r="A187" s="4">
         <v>38504</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="1">
         <v>67.164455621928852</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+      <c r="A188" s="4">
         <v>38534</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="1">
         <v>67.425535214503185</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+      <c r="A189" s="4">
         <v>38565</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="1">
         <v>67.465523001727135</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+      <c r="A190" s="4">
         <v>38596</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="1">
         <v>68.412424086291679</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+      <c r="A191" s="4">
         <v>38626</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="1">
         <v>69.389174078714404</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+      <c r="A192" s="4">
         <v>38657</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="1">
         <v>68.840495383836526</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+      <c r="A193" s="4">
         <v>38687</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="1">
         <v>69.519821974542552</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+      <c r="A194" s="4">
         <v>38718</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="1">
         <v>69.416306326446659</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+      <c r="A195" s="4">
         <v>38749</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="1">
         <v>70.426147040786873</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+      <c r="A196" s="4">
         <v>38777</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="1">
         <v>69.398946124190999</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+      <c r="A197" s="4">
         <v>38808</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="1">
         <v>69.70869181160748</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+      <c r="A198" s="4">
         <v>38838</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="1">
         <v>70.995882692215915</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+      <c r="A199" s="4">
         <v>38869</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="1">
         <v>71.09722700380533</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+      <c r="A200" s="4">
         <v>38899</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="1">
         <v>72.886583726742828</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+      <c r="A201" s="4">
         <v>38930</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="1">
         <v>72.862642231543873</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+      <c r="A202" s="4">
         <v>38961</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="1">
         <v>73.009806911859087</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+      <c r="A203" s="4">
         <v>38991</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="1">
         <v>74.918540809617483</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+      <c r="A204" s="4">
         <v>39022</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="1">
         <v>77.470231939184274</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+      <c r="A205" s="4">
         <v>39052</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="1">
         <v>78.566840469341173</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+      <c r="A206" s="4">
         <v>39083</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="1">
         <v>78.115814084155801</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+      <c r="A207" s="4">
         <v>39114</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="1">
         <v>79.620164362101818</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+      <c r="A208" s="4">
         <v>39142</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="1">
         <v>80.777022113344714</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+      <c r="A209" s="4">
         <v>39173</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="1">
         <v>83.550914300037988</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+      <c r="A210" s="4">
         <v>39203</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="1">
         <v>86.166427172206369</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+      <c r="A211" s="4">
         <v>39234</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="1">
         <v>91.116117048678433</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+      <c r="A212" s="4">
         <v>39264</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="1">
         <v>95.322350254706748</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+      <c r="A213" s="4">
         <v>39295</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="1">
         <v>98.915281639643155</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+      <c r="A214" s="4">
         <v>39326</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="1">
         <v>105.02954423277269</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
+      <c r="A215" s="4">
         <v>39356</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="1">
         <v>107.5851254343452</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
+      <c r="A216" s="4">
         <v>39387</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="1">
         <v>110.45332585943603</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
+      <c r="A217" s="4">
         <v>39417</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="1">
         <v>114.39050078061214</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
+      <c r="A218" s="4">
         <v>39448</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="1">
         <v>120.01583017968713</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
+      <c r="A219" s="4">
         <v>39479</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="1">
         <v>128.02840441177617</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+      <c r="A220" s="4">
         <v>39508</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="1">
         <v>132.06947096045573</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
+      <c r="A221" s="4">
         <v>39539</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="1">
         <v>130.37540375996133</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
+      <c r="A222" s="4">
         <v>39569</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="1">
         <v>130.03518233921287</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
+      <c r="A223" s="4">
         <v>39600</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="1">
         <v>132.52861651196463</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
+      <c r="A224" s="4">
         <v>39630</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="1">
         <v>130.10511546870418</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
+      <c r="A225" s="4">
         <v>39661</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="1">
         <v>121.10344435063858</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
+      <c r="A226" s="4">
         <v>39692</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="1">
         <v>112.76152808586448</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
+      <c r="A227" s="4">
         <v>39722</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="1">
         <v>97.58430378812001</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
+      <c r="A228" s="4">
         <v>39753</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="1">
         <v>89.547427171324472</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
+      <c r="A229" s="4">
         <v>39783</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="1">
         <v>85.972977723222186</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
+      <c r="A230" s="4">
         <v>39814</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="1">
         <v>86.421348424284247</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
+      <c r="A231" s="4">
         <v>39845</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="1">
         <v>84.155982661765677</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
+      <c r="A232" s="4">
         <v>39873</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="1">
         <v>84.015139101540086</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
+      <c r="A233" s="4">
         <v>39904</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="1">
         <v>87.211023165588799</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
+      <c r="A234" s="4">
         <v>39934</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="1">
         <v>93.341410330009296</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
+      <c r="A235" s="4">
         <v>39965</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="1">
         <v>93.326916583544005</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
+      <c r="A236" s="4">
         <v>39995</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="1">
         <v>90.705988637070789</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
+      <c r="A237" s="4">
         <v>40026</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="1">
         <v>93.458807590331972</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
+      <c r="A238" s="4">
         <v>40057</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="1">
         <v>93.044925709258962</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
+      <c r="A239" s="4">
         <v>40087</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="1">
         <v>94.786334471460108</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
+      <c r="A240" s="4">
         <v>40118</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="1">
         <v>98.808240985745613</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+      <c r="A241" s="4">
         <v>40148</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="1">
         <v>100.65974676348125</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
+      <c r="A242" s="4">
         <v>40179</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="1">
         <v>101.49552559347393</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
+      <c r="A243" s="4">
         <v>40210</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="1">
         <v>98.979386679281731</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
+      <c r="A244" s="4">
         <v>40238</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="1">
         <v>96.308920331864229</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
+      <c r="A245" s="4">
         <v>40269</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="1">
         <v>96.843720552095832</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
+      <c r="A246" s="4">
         <v>40299</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="1">
         <v>96.287373861320674</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
+      <c r="A247" s="4">
         <v>40330</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="1">
         <v>95.750055883136824</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
+      <c r="A248" s="4">
         <v>40360</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="1">
         <v>99.960174812561633</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
+      <c r="A249" s="4">
         <v>40391</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="1">
         <v>107.66610706924877</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
+      <c r="A250" s="4">
         <v>40422</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="1">
         <v>114.13213959784272</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
+      <c r="A251" s="4">
         <v>40452</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="1">
         <v>120.07213927332403</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
+      <c r="A252" s="4">
         <v>40483</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="1">
         <v>124.12062280743339</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
+      <c r="A253" s="4">
         <v>40513</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="1">
         <v>129.3098708683066</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
+      <c r="A254" s="4">
         <v>40544</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="1">
         <v>133.68731541218941</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
+      <c r="A255" s="4">
         <v>40575</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="1">
         <v>137.62240001491392</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
+      <c r="A256" s="4">
         <v>40603</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="1">
         <v>134.27942316454204</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
+      <c r="A257" s="4">
         <v>40634</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="1">
         <v>136.4202438571842</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
+      <c r="A258" s="4">
         <v>40664</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="1">
         <v>135.16333931522834</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
+      <c r="A259" s="4">
         <v>40695</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="1">
         <v>134.95586798495637</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
+      <c r="A260" s="4">
         <v>40725</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="1">
         <v>133.19896606404478</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
+      <c r="A261" s="4">
         <v>40756</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="1">
         <v>132.9764676496892</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
+      <c r="A262" s="4">
         <v>40787</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="1">
         <v>130.40936988673025</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
+      <c r="A263" s="4">
         <v>40817</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="1">
         <v>125.71902110433562</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
+      <c r="A264" s="4">
         <v>40848</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="1">
         <v>126.11929200837886</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
+      <c r="A265" s="4">
         <v>40878</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="1">
         <v>122.06128774194863</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
+      <c r="A266" s="4">
         <v>40909</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="1">
         <v>122.40138703068955</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
+      <c r="A267" s="4">
         <v>40940</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="1">
         <v>125.38292659308009</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
+      <c r="A268" s="4">
         <v>40969</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="1">
         <v>125.76324918137013</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
+      <c r="A269" s="4">
         <v>41000</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="1">
         <v>124.38102211438854</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
+      <c r="A270" s="4">
         <v>41030</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="1">
         <v>119.04065513310724</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
+      <c r="A271" s="4">
         <v>41061</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="1">
         <v>115.87005888125145</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
+      <c r="A272" s="4">
         <v>41091</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="1">
         <v>122.12877421581177</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
+      <c r="A273" s="4">
         <v>41122</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="1">
         <v>123.35385621660576</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
+      <c r="A274" s="4">
         <v>41153</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="1">
         <v>125.22304522285901</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
+      <c r="A275" s="4">
         <v>41183</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="1">
         <v>124.04151276080162</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
+      <c r="A276" s="4">
         <v>41214</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="1">
         <v>123.63866045006203</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
+      <c r="A277" s="4">
         <v>41244</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277" s="1">
         <v>122.86475534293109</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
+      <c r="A278" s="4">
         <v>41275</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278" s="1">
         <v>123.39045525367366</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
+      <c r="A279" s="4">
         <v>41306</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279" s="1">
         <v>123.25195428283806</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
+      <c r="A280" s="4">
         <v>41334</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280" s="1">
         <v>122.88793241362539</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
+      <c r="A281" s="4">
         <v>41365</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281" s="1">
         <v>122.87156068790064</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
+      <c r="A282" s="4">
         <v>41395</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="1">
         <v>122.09160124168872</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
+      <c r="A283" s="4">
         <v>41426</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="1">
         <v>120.92326682833009</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
+      <c r="A284" s="4">
         <v>41456</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284" s="1">
         <v>117.89921473942348</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
+      <c r="A285" s="4">
         <v>41487</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285" s="1">
         <v>116.153422763965</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
+      <c r="A286" s="4">
         <v>41518</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286" s="1">
         <v>116.40536668640762</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
+      <c r="A287" s="4">
         <v>41548</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287" s="1">
         <v>118.75319687353954</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
+      <c r="A288" s="4">
         <v>41579</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288" s="1">
         <v>118.67885624962143</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
+      <c r="A289" s="4">
         <v>41609</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289" s="1">
         <v>118.19520320739767</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
+      <c r="A290" s="4">
         <v>41640</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290" s="1">
         <v>116.22440442117495</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
+      <c r="A291" s="4">
         <v>41671</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="1">
         <v>118.47050984644193</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
+      <c r="A292" s="4">
         <v>41699</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292" s="1">
         <v>122.10233348649523</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
+      <c r="A293" s="4">
         <v>41730</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="1">
         <v>121.45684139904604</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
+      <c r="A294" s="4">
         <v>41760</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="1">
         <v>121.30475734611656</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
+      <c r="A295" s="4">
         <v>41791</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="1">
         <v>119.29498812264622</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
+      <c r="A296" s="4">
         <v>41821</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="1">
         <v>116.37468149135118</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
+      <c r="A297" s="4">
         <v>41852</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="1">
         <v>113.02354947542455</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
+      <c r="A298" s="4">
         <v>41883</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298" s="1">
         <v>109.34977448740584</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
+      <c r="A299" s="4">
         <v>41913</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="1">
         <v>109.35537035806981</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
+      <c r="A300" s="4">
         <v>41944</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="1">
         <v>108.23683483031979</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
+      <c r="A301" s="4">
         <v>41974</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="1">
         <v>105.1499411890838</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
+      <c r="A302" s="4">
         <v>42005</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302" s="1">
         <v>100.71195915697933</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
+      <c r="A303" s="4">
         <v>42036</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303" s="1">
         <v>98.450411487002583</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
+      <c r="A304" s="4">
         <v>42064</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304" s="1">
         <v>95.605668219361689</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
+      <c r="A305" s="4">
         <v>42095</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305" s="1">
         <v>94.696895171532333</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
+      <c r="A306" s="4">
         <v>42125</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306" s="1">
         <v>95.03048510379233</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
+      <c r="A307" s="4">
         <v>42156</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307" s="1">
         <v>94.543206733493776</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
+      <c r="A308" s="4">
         <v>42186</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308" s="1">
         <v>93.803221381518327</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
+      <c r="A309" s="4">
         <v>42217</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309" s="1">
         <v>89.564194169971188</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
+      <c r="A310" s="4">
         <v>42248</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="1">
         <v>89.019701458323553</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
+      <c r="A311" s="4">
         <v>42278</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311" s="1">
         <v>90.369508685626712</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
+      <c r="A312" s="4">
         <v>42309</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312" s="1">
         <v>87.70669525008654</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
+      <c r="A313" s="4">
         <v>42339</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313" s="1">
         <v>87.061005732853573</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
+      <c r="A314" s="4">
         <v>42370</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314" s="1">
         <v>84.861238424402572</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
+      <c r="A315" s="4">
         <v>42401</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315" s="1">
         <v>86.046383419250574</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
+      <c r="A316" s="4">
         <v>42430</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316" s="1">
         <v>87.422204943485895</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
+      <c r="A317" s="4">
         <v>42461</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317" s="1">
         <v>89.177346068696593</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
+      <c r="A318" s="4">
         <v>42491</v>
       </c>
-      <c r="B318" s="2">
+      <c r="B318" s="1">
         <v>90.583839418895238</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
+      <c r="A319" s="4">
         <v>42522</v>
       </c>
-      <c r="B319" s="2">
+      <c r="B319" s="1">
         <v>93.836059260597139</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
+      <c r="A320" s="4">
         <v>42552</v>
       </c>
-      <c r="B320" s="2">
+      <c r="B320" s="1">
         <v>92.973172589459068</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
+      <c r="A321" s="4">
         <v>42583</v>
       </c>
-      <c r="B321" s="2">
+      <c r="B321" s="1">
         <v>95.294724328825737</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
+      <c r="A322" s="4">
         <v>42614</v>
       </c>
-      <c r="B322" s="2">
+      <c r="B322" s="1">
         <v>96.086100431050951</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
+      <c r="A323" s="4">
         <v>42644</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323" s="1">
         <v>95.92635654867054</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
+      <c r="A324" s="4">
         <v>42675</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324" s="1">
         <v>95.799278617425657</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
+      <c r="A325" s="4">
         <v>42705</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325" s="1">
         <v>95.086356945122645</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
+      <c r="A326" s="4">
         <v>42736</v>
       </c>
-      <c r="B326" s="2">
+      <c r="B326" s="1">
         <v>97.702430562659785</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
+      <c r="A327" s="4">
         <v>42767</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327" s="1">
         <v>98.119069876432334</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
+      <c r="A328" s="4">
         <v>42795</v>
       </c>
-      <c r="B328" s="2">
+      <c r="B328" s="1">
         <v>96.240328157749403</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
+      <c r="A329" s="4">
         <v>42826</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B329" s="1">
         <v>95.136271435286886</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
+      <c r="A330" s="4">
         <v>42856</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330" s="1">
         <v>97.399869830618243</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
+      <c r="A331" s="4">
         <v>42888</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331" s="1">
         <v>97.966066966256307</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
+      <c r="A332" s="4">
         <v>42917</v>
       </c>
-      <c r="B332" s="2">
+      <c r="B332" s="1">
         <v>100.23240520288037</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
+      <c r="A333" s="4">
         <v>42948</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333" s="1">
         <v>99.338330224025697</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
+      <c r="A334" s="4">
         <v>42979</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334" s="1">
         <v>99.887133315590205</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
+      <c r="A335" s="4">
         <v>43009</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335" s="1">
         <v>98.912132230578692</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
+      <c r="A336" s="4">
         <v>43040</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336" s="1">
         <v>98.934208584369813</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="1">
+      <c r="A337" s="4">
         <v>43070</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B337" s="1">
         <v>96.406066018554256</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
+      <c r="A338" s="4">
         <v>43101</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338" s="1">
         <v>96.80294729738273</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="1">
+      <c r="A339" s="4">
         <v>43132</v>
       </c>
-      <c r="B339" s="2">
+      <c r="B339" s="1">
         <v>97.875309196410214</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
+      <c r="A340" s="4">
         <v>43161</v>
       </c>
-      <c r="B340" s="2">
+      <c r="B340" s="1">
         <v>99.042066242010378</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
+      <c r="A341" s="4">
         <v>43192</v>
       </c>
-      <c r="B341" s="2">
+      <c r="B341" s="1">
         <v>98.557991831499152</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
+      <c r="A342" s="4">
         <v>43223</v>
       </c>
-      <c r="B342" s="2">
+      <c r="B342" s="1">
         <v>98.672771594809703</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
+      <c r="A343" s="4">
         <v>43252</v>
       </c>
-      <c r="B343" s="2">
+      <c r="B343" s="1">
         <v>96.950991723958538</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
+      <c r="A344" s="4">
         <v>43283</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344" s="1">
         <v>95.135179101762546</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
+      <c r="A345" s="4">
         <v>43313</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345" s="1">
         <v>95.969576183922669</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
+      <c r="A346" s="4">
         <v>43344</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346" s="1">
         <v>94.239430408790298</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
+      <c r="A347" s="4">
         <v>43374</v>
       </c>
-      <c r="B347" s="2">
+      <c r="B347" s="1">
         <v>93.3088521554686</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
+      <c r="A348" s="4">
         <v>43405</v>
       </c>
-      <c r="B348" s="2">
+      <c r="B348" s="1">
         <v>92.195534253777666</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
+      <c r="A349" s="4">
         <v>43435</v>
       </c>
-      <c r="B349" s="2">
+      <c r="B349" s="1">
         <v>92.249603458964941</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
+      <c r="A350" s="4">
         <v>43466</v>
       </c>
-      <c r="B350" s="2">
+      <c r="B350" s="1">
         <v>93.315060319903296</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="1">
+      <c r="A351" s="4">
         <v>43497</v>
       </c>
-      <c r="B351" s="2">
+      <c r="B351" s="1">
         <v>94.009827246068099</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
+      <c r="A352" s="4">
         <v>43525</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352" s="1">
         <v>93.158414966533911</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
+      <c r="A353" s="4">
         <v>43556</v>
       </c>
-      <c r="B353" s="2">
+      <c r="B353" s="1">
         <v>93.611370171862163</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
+      <c r="A354" s="4">
         <v>43586</v>
       </c>
-      <c r="B354" s="2">
+      <c r="B354" s="1">
         <v>94.267664257664137</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
+      <c r="A355" s="4">
         <v>43618</v>
       </c>
-      <c r="B355" s="2">
+      <c r="B355" s="1">
         <v>95.404993031098414</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
+      <c r="A356" s="4">
         <v>43647</v>
       </c>
-      <c r="B356" s="2">
+      <c r="B356" s="1">
         <v>95.14701488199006</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="1">
+      <c r="A357" s="4">
         <v>43678</v>
       </c>
-      <c r="B357" s="2">
+      <c r="B357" s="1">
         <v>94.084177362431817</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" s="1">
+      <c r="A358" s="4">
         <v>43709</v>
       </c>
-      <c r="B358" s="2">
+      <c r="B358" s="1">
         <v>93.368634768546059</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="1">
+      <c r="A359" s="4">
         <v>43739</v>
       </c>
-      <c r="B359" s="2">
+      <c r="B359" s="1">
         <v>95.247349769978584</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="1">
+      <c r="A360" s="4">
         <v>43771</v>
       </c>
-      <c r="B360" s="2">
+      <c r="B360" s="1">
         <v>98.626175613962104</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" s="1">
+      <c r="A361" s="4">
         <v>43800</v>
       </c>
-      <c r="B361" s="2">
+      <c r="B361" s="1">
         <v>101.00678467226496</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" s="1">
+      <c r="A362" s="4">
         <v>43831</v>
       </c>
-      <c r="B362" s="2">
+      <c r="B362" s="1">
         <v>102.5151015442658</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" s="1">
+      <c r="A363" s="4">
         <v>43862</v>
       </c>
-      <c r="B363" s="2">
+      <c r="B363" s="1">
         <v>99.418984683378341</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" s="1">
+      <c r="A364" s="4">
         <v>43891</v>
       </c>
-      <c r="B364" s="2">
+      <c r="B364" s="1">
         <v>95.177238817172721</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" s="1">
+      <c r="A365" s="4">
         <v>43922</v>
       </c>
-      <c r="B365" s="2">
+      <c r="B365" s="1">
         <v>92.526875587249066</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366" s="1">
+      <c r="A366" s="4">
         <v>43952</v>
       </c>
-      <c r="B366" s="2">
+      <c r="B366" s="1">
         <v>91.135360588162669</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" s="1">
+      <c r="A367" s="4">
         <v>43983</v>
       </c>
-      <c r="B367" s="2">
+      <c r="B367" s="1">
         <v>93.255843352710514</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" s="1">
+      <c r="A368" s="4">
         <v>44013</v>
       </c>
-      <c r="B368" s="2">
+      <c r="B368" s="1">
         <v>94.041451710554767</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369" s="1">
+      <c r="A369" s="4">
         <v>44044</v>
       </c>
-      <c r="B369" s="2">
+      <c r="B369" s="1">
         <v>95.915944445938479</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" s="1">
+      <c r="A370" s="4">
         <v>44075</v>
       </c>
-      <c r="B370" s="2">
+      <c r="B370" s="1">
         <v>98.011497887472643</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" s="1">
+      <c r="A371" s="4">
         <v>44105</v>
       </c>
-      <c r="B371" s="2">
+      <c r="B371" s="1">
         <v>101.3763809972607</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372" s="1">
+      <c r="A372" s="4">
         <v>44136</v>
       </c>
-      <c r="B372" s="2">
+      <c r="B372" s="1">
         <v>105.58600130353233</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373" s="1">
+      <c r="A373" s="4">
         <v>44166</v>
       </c>
-      <c r="B373" s="2">
+      <c r="B373" s="1">
         <v>108.59683960847201</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" s="1">
+      <c r="A374" s="4">
         <v>44197</v>
       </c>
-      <c r="B374" s="2">
+      <c r="B374" s="1">
         <v>113.5255331944346</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" s="1">
+      <c r="A375" s="4">
         <v>44228</v>
       </c>
-      <c r="B375" s="2">
+      <c r="B375" s="1">
         <v>116.57051072273163</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A376" s="1">
+      <c r="A376" s="4">
         <v>44256</v>
       </c>
-      <c r="B376" s="2">
+      <c r="B376" s="1">
         <v>119.22932965492514</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A377" s="1">
+      <c r="A377" s="4">
         <v>44287</v>
       </c>
-      <c r="B377" s="2">
+      <c r="B377" s="1">
         <v>122.06626942216495</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A378" s="1">
+      <c r="A378" s="4">
         <v>44317</v>
       </c>
-      <c r="B378" s="2">
+      <c r="B378" s="1">
         <v>128.12555865773592</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379" s="1">
+      <c r="A379" s="4">
         <v>44348</v>
       </c>
-      <c r="B379" s="2">
+      <c r="B379" s="1">
         <v>125.27763455670987</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" s="1">
+      <c r="A380" s="4">
         <v>44378</v>
       </c>
-      <c r="B380" s="2">
+      <c r="B380" s="1">
         <v>124.56485837282088</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" s="1">
+      <c r="A381" s="4">
         <v>44409</v>
       </c>
-      <c r="B381" s="2">
+      <c r="B381" s="1">
         <v>127.95813590564271</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
+      <c r="A382" s="4">
         <v>44440</v>
       </c>
-      <c r="B382" s="2">
+      <c r="B382" s="1">
         <v>129.1891922766022</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383" s="1">
+      <c r="A383" s="4">
         <v>44470</v>
       </c>
-      <c r="B383" s="2">
+      <c r="B383" s="1">
         <v>133.22436853297222</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
+      <c r="A384" s="4">
         <v>44501</v>
       </c>
-      <c r="B384" s="2">
+      <c r="B384" s="1">
         <v>135.31485290573889</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" s="1">
+      <c r="A385" s="4">
         <v>44531</v>
       </c>
-      <c r="B385" s="2">
+      <c r="B385" s="1">
         <v>133.69110309418375</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386" s="1">
+      <c r="A386" s="4">
         <v>44562</v>
       </c>
-      <c r="B386" s="2">
+      <c r="B386" s="1">
         <v>135.59415474947579</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" s="1">
+      <c r="A387" s="4">
         <v>44593</v>
       </c>
-      <c r="B387" s="2">
+      <c r="B387" s="1">
         <v>141.06988276821363</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" s="1">
+      <c r="A388" s="4">
         <v>44621</v>
       </c>
-      <c r="B388" s="2">
+      <c r="B388" s="1">
         <v>159.71318001343587</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" s="1">
+      <c r="A389" s="4">
         <v>44652</v>
       </c>
-      <c r="B389" s="2">
+      <c r="B389" s="1">
         <v>158.43572048568788</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" s="1">
+      <c r="A390" s="4">
         <v>44682</v>
       </c>
-      <c r="B390" s="2">
+      <c r="B390" s="1">
         <v>157.88527888175696</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" s="1">
+      <c r="A391" s="4">
         <v>44713</v>
       </c>
-      <c r="B391" s="2">
+      <c r="B391" s="1">
         <v>154.69999999999999</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" s="1">
+      <c r="A392" s="4">
         <v>44743</v>
       </c>
-      <c r="B392" s="2">
+      <c r="B392" s="1">
         <v>140.69999999999999</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" s="1">
+      <c r="A393" s="4">
         <v>44774</v>
       </c>
-      <c r="B393" s="2">
+      <c r="B393" s="1">
         <v>138</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" s="1">
+      <c r="A394" s="4">
+        <v>44805</v>
+      </c>
+      <c r="B394" s="1">
+        <v>136.04192237613955</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B395" s="1">
+        <v>135.86380584803129</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B396" s="1">
+        <v>135.67326670384972</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B397" s="1">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B398" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B399" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B400" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B401" s="1">
+        <v>122.06626942216495</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="4">
+        <v>45047</v>
+      </c>
+      <c r="B402" s="1">
+        <v>128.12555865773592</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="4">
+        <v>45078</v>
+      </c>
+      <c r="B403" s="1">
+        <v>125.27763455670987</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B404" s="1">
+        <v>124.56485837282088</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="4">
+        <v>45139</v>
+      </c>
+      <c r="B405" s="1">
+        <v>127.95813590564271</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="4">
         <v>45170</v>
       </c>
-      <c r="B394" s="2">
-        <v>368.48027923534698</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" s="1">
+      <c r="B406" s="1">
+        <v>129.1891922766022</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="4">
         <v>45200</v>
       </c>
-      <c r="B395" s="2">
-        <v>366.81439895218</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" s="1">
+      <c r="B407" s="1">
+        <v>133.22436853297222</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="4">
         <v>45231</v>
       </c>
-      <c r="B396" s="2">
-        <v>367.29435460865898</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" s="1">
+      <c r="B408" s="1">
+        <v>135.31485290573889</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="4">
         <v>45261</v>
       </c>
-      <c r="B397" s="2">
-        <v>366.036238149106</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" s="1">
+      <c r="B409" s="1">
+        <v>133.69110309418375</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="4">
         <v>45292</v>
       </c>
-      <c r="B398" s="2">
+      <c r="B410" s="1">
         <v>113.318996829132</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="1">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="4">
         <v>45323</v>
       </c>
-      <c r="B399" s="2">
+      <c r="B411" s="1">
         <v>113.789438822553</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="4">
         <v>45352</v>
       </c>
-      <c r="B400" s="2">
+      <c r="B412" s="1">
         <v>114.91127810496199</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" s="1">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="4">
         <v>45383</v>
       </c>
-      <c r="B401" s="2">
+      <c r="B413" s="1">
         <v>115.649054315021</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402" s="1">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="4">
         <v>45413</v>
       </c>
-      <c r="B402" s="2">
+      <c r="B414" s="1">
         <v>116.367634709106</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403" s="1">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="4">
         <v>45444</v>
       </c>
-      <c r="B403" s="2">
+      <c r="B415" s="1">
         <v>116.459851333418</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" s="1">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="4">
         <v>45474</v>
       </c>
-      <c r="B404" s="2">
+      <c r="B416" s="1">
         <v>115.202664487246</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" s="1">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="4">
         <v>45505</v>
       </c>
-      <c r="B405" s="2">
+      <c r="B417" s="1">
         <v>113.73625216017101</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" s="1">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="4">
         <v>45536</v>
       </c>
-      <c r="B406" s="2">
+      <c r="B418" s="1">
         <v>113.382502109162</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" s="1">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="4">
         <v>45566</v>
       </c>
-      <c r="B407" s="2">
+      <c r="B419" s="1">
         <v>113.191324530656</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" s="1">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="4">
         <v>45597</v>
       </c>
-      <c r="B408" s="2">
+      <c r="B420" s="1">
         <v>113.246404575196</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" s="1">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="4">
         <v>45627</v>
       </c>
-      <c r="B409" s="2">
+      <c r="B421" s="1">
         <v>113.10202225634301</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" s="1">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="4">
         <v>45658</v>
       </c>
-      <c r="B410" s="2">
+      <c r="B422" s="1">
         <v>109.558795239969</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="1">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="4">
         <v>45689</v>
       </c>
-      <c r="B411" s="2">
+      <c r="B423" s="1">
         <v>111.024507284984</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="1">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="4">
         <v>45717</v>
       </c>
-      <c r="B412" s="2">
+      <c r="B424" s="1">
         <v>114.51971683641</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" s="1">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="4">
         <v>45748</v>
       </c>
-      <c r="B413" s="2">
+      <c r="B425" s="1">
         <v>116.818337054697</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" s="1">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="4">
         <v>45778</v>
       </c>
-      <c r="B414" s="2">
+      <c r="B426" s="1">
         <v>119.057150667535</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" s="1">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="4">
         <v>45809</v>
       </c>
-      <c r="B415" s="2">
+      <c r="B427" s="1">
         <v>119.344461364483</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" s="1">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="4">
         <v>45839</v>
       </c>
-      <c r="B416" s="2">
+      <c r="B428" s="1">
         <v>115.427562088831</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" s="1">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="4">
         <v>45870</v>
       </c>
-      <c r="B417" s="2">
+      <c r="B429" s="1">
         <v>110.85879858385201</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" s="1">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="4">
         <v>45901</v>
       </c>
-      <c r="B418" s="2">
+      <c r="B430" s="1">
         <v>109.756652691396</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" s="1">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="4">
         <v>45931</v>
       </c>
-      <c r="B419" s="2">
+      <c r="B431" s="1">
         <v>109.16101862073</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" s="1">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="4">
         <v>45962</v>
       </c>
-      <c r="B420" s="2">
+      <c r="B432" s="1">
         <v>109.332626355269</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" s="1">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="4">
         <v>45992</v>
       </c>
-      <c r="B421" s="2">
+      <c r="B433" s="1">
         <v>108.882787891037</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="1">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="4">
         <v>46023</v>
       </c>
-      <c r="B422" s="2">
+      <c r="B434" s="1">
         <v>109.62772350247</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" s="1">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="4">
         <v>46054</v>
       </c>
-      <c r="B423" s="2">
+      <c r="B435" s="1">
         <v>111.150825948057</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" s="1">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="4">
         <v>46082</v>
       </c>
-      <c r="B424" s="2">
+      <c r="B436" s="1">
         <v>114.78289149170701</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" s="1">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="4">
         <v>46113</v>
       </c>
-      <c r="B425" s="2">
+      <c r="B437" s="1">
         <v>117.17151488322</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" s="1">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="4">
         <v>46143</v>
       </c>
-      <c r="B426" s="2">
+      <c r="B438" s="1">
         <v>119.497989923473</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" s="1">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="4">
         <v>46174</v>
       </c>
-      <c r="B427" s="2">
+      <c r="B439" s="1">
         <v>119.796550358077</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" s="1">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="4">
         <v>46204</v>
       </c>
-      <c r="B428" s="2">
+      <c r="B440" s="1">
         <v>115.726283700892</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" s="1">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="4">
         <v>46235</v>
       </c>
-      <c r="B429" s="2">
+      <c r="B441" s="1">
         <v>110.97862887237</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" s="1">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="4">
         <v>46266</v>
       </c>
-      <c r="B430" s="2">
+      <c r="B442" s="1">
         <v>109.83332812254</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" s="1">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="4">
         <v>46296</v>
       </c>
-      <c r="B431" s="2">
+      <c r="B443" s="1">
         <v>109.214371818817</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" s="1">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="4">
         <v>46327</v>
       </c>
-      <c r="B432" s="2">
+      <c r="B444" s="1">
         <v>109.39269890635499</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" s="1">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="4">
         <v>46357</v>
       </c>
-      <c r="B433" s="2">
+      <c r="B445" s="1">
         <v>108.92524688034401</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" s="1">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="4">
         <v>46388</v>
       </c>
-      <c r="B434" s="2">
+      <c r="B446" s="1">
         <v>110.86632244961901</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" s="1">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="4">
         <v>46419</v>
       </c>
-      <c r="B435" s="2">
+      <c r="B447" s="1">
         <v>112.406036686676</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" s="1">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="4">
         <v>46447</v>
       </c>
-      <c r="B436" s="2">
+      <c r="B448" s="1">
         <v>116.077715531187</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" s="1">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="4">
         <v>46478</v>
       </c>
-      <c r="B437" s="2">
+      <c r="B449" s="1">
         <v>118.492390560787</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" s="1">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="4">
         <v>46508</v>
       </c>
-      <c r="B438" s="2">
+      <c r="B450" s="1">
         <v>120.844239415088</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" s="1">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="4">
         <v>46539</v>
       </c>
-      <c r="B439" s="2">
+      <c r="B451" s="1">
         <v>121.146056113705</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" s="1">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="4">
         <v>46569</v>
       </c>
-      <c r="B440" s="2">
+      <c r="B452" s="1">
         <v>117.031396893737</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441" s="1">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="4">
         <v>46600</v>
       </c>
-      <c r="B441" s="2">
+      <c r="B453" s="1">
         <v>112.231961535145</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" s="1">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="4">
         <v>46631</v>
       </c>
-      <c r="B442" s="2">
+      <c r="B454" s="1">
         <v>111.07416950655499</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" s="1">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="4">
         <v>46661</v>
       </c>
-      <c r="B443" s="2">
+      <c r="B455" s="1">
         <v>110.448462525569</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" s="1">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="4">
         <v>46692</v>
       </c>
-      <c r="B444" s="2">
+      <c r="B456" s="1">
         <v>110.628734546228</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445" s="1">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="4">
         <v>46722</v>
       </c>
-      <c r="B445" s="2">
+      <c r="B457" s="1">
         <v>110.15618423178501</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" s="1">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="4">
         <v>46753</v>
       </c>
-      <c r="B446" s="2">
+      <c r="B458" s="1">
         <v>112.112336364977</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447" s="1">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="4">
         <v>46784</v>
       </c>
-      <c r="B447" s="2">
+      <c r="B459" s="1">
         <v>113.65206661627499</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448" s="1">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="4">
         <v>46813</v>
       </c>
-      <c r="B448" s="2">
+      <c r="B460" s="1">
         <v>117.32378364913799</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="1">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="4">
         <v>46844</v>
       </c>
-      <c r="B449" s="2">
+      <c r="B461" s="1">
         <v>119.738483793261</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" s="1">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="4">
         <v>46874</v>
       </c>
-      <c r="B450" s="2">
+      <c r="B462" s="1">
         <v>122.090357108642</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="1">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="4">
         <v>46905</v>
       </c>
-      <c r="B451" s="2">
+      <c r="B463" s="1">
         <v>122.39217694638999</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="1">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="4">
         <v>46935</v>
       </c>
-      <c r="B452" s="2">
+      <c r="B464" s="1">
         <v>118.277474930726</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" s="1">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="4">
         <v>46966</v>
       </c>
-      <c r="B453" s="2">
+      <c r="B465" s="1">
         <v>113.477989654224</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" s="1">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="4">
         <v>46997</v>
       </c>
-      <c r="B454" s="2">
+      <c r="B466" s="1">
         <v>112.320185583685</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455" s="1">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="4">
         <v>47027</v>
       </c>
-      <c r="B455" s="2">
+      <c r="B467" s="1">
         <v>111.694472094855</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" s="1">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="4">
         <v>47058</v>
       </c>
-      <c r="B456" s="2">
+      <c r="B468" s="1">
         <v>111.874745990484</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" s="1">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="4">
         <v>47088</v>
       </c>
-      <c r="B457" s="2">
+      <c r="B469" s="1">
         <v>111.402190761146</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" s="1">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="4">
         <v>47119</v>
       </c>
-      <c r="B458" s="2">
+      <c r="B470" s="1">
         <v>113.41186284602099</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" s="1">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="4">
         <v>47150</v>
       </c>
-      <c r="B459" s="2">
+      <c r="B471" s="1">
         <v>114.95212854894901</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" s="1">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="4">
         <v>47178</v>
       </c>
-      <c r="B460" s="2">
+      <c r="B472" s="1">
         <v>118.625122446296</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" s="1">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="4">
         <v>47209</v>
       </c>
-      <c r="B461" s="2">
+      <c r="B473" s="1">
         <v>121.040662318759</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462" s="1">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="4">
         <v>47239</v>
       </c>
-      <c r="B462" s="2">
+      <c r="B474" s="1">
         <v>123.39335351402499</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" s="1">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="4">
         <v>47270</v>
       </c>
-      <c r="B463" s="2">
+      <c r="B475" s="1">
         <v>123.69527831166801</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" s="1">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="4">
         <v>47300</v>
       </c>
-      <c r="B464" s="2">
+      <c r="B476" s="1">
         <v>119.57914538049</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A465" s="1">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="4">
         <v>47331</v>
       </c>
-      <c r="B465" s="2">
+      <c r="B477" s="1">
         <v>114.777991050455</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A466" s="1">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="4">
         <v>47362</v>
       </c>
-      <c r="B466" s="2">
+      <c r="B478" s="1">
         <v>113.619784345703</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A467" s="1">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="4">
         <v>47392</v>
       </c>
-      <c r="B467" s="2">
+      <c r="B479" s="1">
         <v>112.993853260766</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" s="1">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="4">
         <v>47423</v>
       </c>
-      <c r="B468" s="2">
+      <c r="B480" s="1">
         <v>113.17418984786499</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469" s="1">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="4">
         <v>47453</v>
       </c>
-      <c r="B469" s="2">
+      <c r="B481" s="1">
         <v>112.701470284243</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470" s="1">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="4">
         <v>47484</v>
       </c>
-      <c r="B470" s="2">
+      <c r="B482" s="1">
         <v>114.580511658793</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471" s="1">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="4">
         <v>47515</v>
       </c>
-      <c r="B471" s="2">
+      <c r="B483" s="1">
         <v>116.118820126572</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472" s="1">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="4">
         <v>47543</v>
       </c>
-      <c r="B472" s="2">
+      <c r="B484" s="1">
         <v>119.787146704023</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A473" s="1">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="4">
         <v>47574</v>
       </c>
-      <c r="B473" s="2">
+      <c r="B485" s="1">
         <v>122.199617119357</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A474" s="1">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="4">
         <v>47604</v>
       </c>
-      <c r="B474" s="2">
+      <c r="B486" s="1">
         <v>124.549318720104</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A475" s="1">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="4">
         <v>47635</v>
       </c>
-      <c r="B475" s="2">
+      <c r="B487" s="1">
         <v>124.85085985808</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476" s="1">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="4">
         <v>47665</v>
       </c>
-      <c r="B476" s="2">
+      <c r="B488" s="1">
         <v>120.739957349184</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A477" s="1">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="4">
         <v>47696</v>
       </c>
-      <c r="B477" s="2">
+      <c r="B489" s="1">
         <v>115.944903906805</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478" s="1">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="4">
         <v>47727</v>
       </c>
-      <c r="B478" s="2">
+      <c r="B490" s="1">
         <v>114.788168949991</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479" s="1">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="4">
         <v>47757</v>
       </c>
-      <c r="B479" s="2">
+      <c r="B491" s="1">
         <v>114.163033243616</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" s="1">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="4">
         <v>47788</v>
       </c>
-      <c r="B480" s="2">
+      <c r="B492" s="1">
         <v>114.34314067472801</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481" s="1">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="4">
         <v>47818</v>
       </c>
-      <c r="B481" s="2">
+      <c r="B493" s="1">
         <v>113.87102180184699</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" s="1">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="4">
         <v>47849</v>
       </c>
-      <c r="B482" s="2">
+      <c r="B494" s="1">
         <v>115.74514337184399</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" s="1">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="4">
         <v>47880</v>
       </c>
-      <c r="B483" s="2">
+      <c r="B495" s="1">
         <v>117.283225180736</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" s="1">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="4">
         <v>47908</v>
       </c>
-      <c r="B484" s="2">
+      <c r="B496" s="1">
         <v>120.951011256177</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485" s="1">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="4">
         <v>47939</v>
       </c>
-      <c r="B485" s="2">
+      <c r="B497" s="1">
         <v>123.363126211035</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" s="1">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="4">
         <v>47969</v>
       </c>
-      <c r="B486" s="2">
+      <c r="B498" s="1">
         <v>125.712481599849</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A487" s="1">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="4">
         <v>48000</v>
       </c>
-      <c r="B487" s="2">
+      <c r="B499" s="1">
         <v>126.013978307868</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="4">
         <v>48030</v>
       </c>
-      <c r="B488" s="2">
+      <c r="B500" s="1">
         <v>121.90368151141899</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489" s="1">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="4">
         <v>48061</v>
       </c>
-      <c r="B489" s="2">
+      <c r="B501" s="1">
         <v>117.10933458629501</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490" s="1">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="4">
         <v>48092</v>
       </c>
-      <c r="B490" s="2">
+      <c r="B502" s="1">
         <v>115.95277006620699</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491" s="1">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="4">
         <v>48122</v>
       </c>
-      <c r="B491" s="2">
+      <c r="B503" s="1">
         <v>115.327726469163</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A492" s="1">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="4">
         <v>48153</v>
       </c>
-      <c r="B492" s="2">
+      <c r="B504" s="1">
         <v>115.507807362717</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A493" s="1">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="4">
         <v>48183</v>
       </c>
-      <c r="B493" s="2">
+      <c r="B505" s="1">
         <v>115.03575805321699</v>
       </c>
     </row>
